--- a/Dim/FictionalCompanyNames_ v0-00-001.xlsx
+++ b/Dim/FictionalCompanyNames_ v0-00-001.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\andre\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Datasets\Dim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0285F807-8A5C-452A-9EBB-9730327D5B11}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9918DC-95F8-476D-BFAE-A6122FB52274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1099" uniqueCount="666">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="671">
   <si>
     <t>Company Name</t>
   </si>
@@ -2033,6 +2033,21 @@
   </si>
   <si>
     <t>https://www.google.com</t>
+  </si>
+  <si>
+    <t>Carl Conrad Coreander Old Books</t>
+  </si>
+  <si>
+    <t>Bookstore</t>
+  </si>
+  <si>
+    <t>Carl Conrad Coreander</t>
+  </si>
+  <si>
+    <t>Bastian Balthazar Bux</t>
+  </si>
+  <si>
+    <t>The Never Ending Story</t>
   </si>
 </sst>
 </file>
@@ -2341,6 +2356,9 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A8BA1E7-3320-495B-9DCB-600415C13F39}" name="Tabela1" displayName="Tabela1" ref="A1:G1048576" totalsRowShown="0" headerRowDxfId="8" dataDxfId="7">
   <autoFilter ref="A1:G1048576" xr:uid="{BF55A89E-8D9E-4D6D-B5AF-A40767827AF9}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G1005">
+    <sortCondition ref="A1:A1048576"/>
+  </sortState>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{794D70CA-3011-4583-9359-D702FAD765B0}" name="Company Name" dataDxfId="6"/>
     <tableColumn id="2" xr3:uid="{C889E0AD-A7CA-4DBF-9603-EF0D25CEA2B0}" name="Category" dataDxfId="5"/>
@@ -2660,7 +2678,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3948,24 +3966,26 @@
     </row>
     <row r="30" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A30" s="4" t="s">
-        <v>439</v>
+        <v>666</v>
       </c>
       <c r="B30" s="4" t="s">
-        <v>440</v>
+        <v>667</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>444</v>
+        <v>261</v>
       </c>
       <c r="D30" s="4" t="s">
-        <v>441</v>
+        <v>670</v>
       </c>
       <c r="E30" s="4" t="s">
-        <v>442</v>
+        <v>355</v>
       </c>
       <c r="F30" s="4" t="s">
-        <v>443</v>
-      </c>
-      <c r="G30" s="4"/>
+        <v>668</v>
+      </c>
+      <c r="G30" s="4" t="s">
+        <v>669</v>
+      </c>
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
@@ -3991,22 +4011,22 @@
     </row>
     <row r="31" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A31" s="4" t="s">
-        <v>219</v>
+        <v>439</v>
       </c>
       <c r="B31" s="4" t="s">
-        <v>575</v>
+        <v>440</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="D31" s="4" t="s">
-        <v>220</v>
+        <v>441</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>221</v>
+        <v>443</v>
       </c>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
@@ -4034,26 +4054,24 @@
     </row>
     <row r="32" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A32" s="4" t="s">
-        <v>401</v>
+        <v>219</v>
       </c>
       <c r="B32" s="4" t="s">
-        <v>405</v>
+        <v>575</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>398</v>
+        <v>261</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>399</v>
+        <v>220</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>342</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G32" s="4" t="s">
-        <v>402</v>
-      </c>
+        <v>221</v>
+      </c>
+      <c r="G32" s="4"/>
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
       <c r="J32" s="4"/>
@@ -4079,24 +4097,26 @@
     </row>
     <row r="33" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A33" s="4" t="s">
-        <v>325</v>
+        <v>401</v>
       </c>
       <c r="B33" s="4" t="s">
-        <v>327</v>
+        <v>405</v>
       </c>
       <c r="C33" s="4" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="D33" s="4" t="s">
-        <v>326</v>
+        <v>399</v>
       </c>
       <c r="E33" s="4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>328</v>
-      </c>
-      <c r="G33" s="4"/>
+        <v>403</v>
+      </c>
+      <c r="G33" s="4" t="s">
+        <v>402</v>
+      </c>
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
       <c r="J33" s="4"/>
@@ -4122,7 +4142,7 @@
     </row>
     <row r="34" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A34" s="4" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>327</v>
@@ -4131,13 +4151,13 @@
         <v>319</v>
       </c>
       <c r="D34" s="4" t="s">
-        <v>350</v>
+        <v>326</v>
       </c>
       <c r="E34" s="4" t="s">
         <v>322</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>349</v>
+        <v>328</v>
       </c>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
@@ -4165,22 +4185,22 @@
     </row>
     <row r="35" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A35" s="4" t="s">
-        <v>372</v>
+        <v>348</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>374</v>
+        <v>327</v>
       </c>
       <c r="C35" s="4" t="s">
-        <v>367</v>
+        <v>319</v>
       </c>
       <c r="D35" s="4" t="s">
-        <v>368</v>
+        <v>350</v>
       </c>
       <c r="E35" s="4" t="s">
-        <v>354</v>
+        <v>322</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>373</v>
+        <v>349</v>
       </c>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
@@ -4208,26 +4228,24 @@
     </row>
     <row r="36" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A36" s="4" t="s">
-        <v>468</v>
+        <v>372</v>
       </c>
       <c r="B36" s="4" t="s">
-        <v>385</v>
+        <v>374</v>
       </c>
       <c r="C36" s="4" t="s">
-        <v>261</v>
+        <v>367</v>
       </c>
       <c r="D36" s="4" t="s">
-        <v>386</v>
+        <v>368</v>
       </c>
       <c r="E36" s="4" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>384</v>
-      </c>
-      <c r="G36" s="4" t="s">
-        <v>387</v>
-      </c>
+        <v>373</v>
+      </c>
+      <c r="G36" s="4"/>
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
       <c r="J36" s="4"/>
@@ -4252,26 +4270,26 @@
       <c r="AC36" s="4"/>
     </row>
     <row r="37" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A37" s="3" t="s">
-        <v>191</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>602</v>
-      </c>
-      <c r="C37" s="3" t="s">
+      <c r="A37" s="4" t="s">
+        <v>468</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>385</v>
+      </c>
+      <c r="C37" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D37" s="3" t="s">
-        <v>193</v>
+      <c r="D37" s="4" t="s">
+        <v>386</v>
       </c>
       <c r="E37" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F37" s="3" t="s">
-        <v>192</v>
+        <v>342</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>384</v>
       </c>
       <c r="G37" s="4" t="s">
-        <v>50</v>
+        <v>387</v>
       </c>
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
@@ -4297,25 +4315,27 @@
       <c r="AC37" s="4"/>
     </row>
     <row r="38" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A38" s="4" t="s">
-        <v>654</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>655</v>
-      </c>
-      <c r="C38" s="4" t="s">
+      <c r="A38" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>602</v>
+      </c>
+      <c r="C38" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D38" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E38" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>653</v>
-      </c>
-      <c r="G38" s="4"/>
+        <v>193</v>
+      </c>
+      <c r="E38" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F38" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="G38" s="4" t="s">
+        <v>50</v>
+      </c>
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
       <c r="J38" s="4"/>
@@ -4341,22 +4361,22 @@
     </row>
     <row r="39" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A39" s="4" t="s">
-        <v>580</v>
+        <v>654</v>
       </c>
       <c r="B39" s="4" t="s">
-        <v>581</v>
+        <v>655</v>
       </c>
       <c r="C39" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D39" s="3" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="F39" s="4" t="s">
-        <v>579</v>
+        <v>653</v>
       </c>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
@@ -4383,13 +4403,13 @@
       <c r="AC39" s="4"/>
     </row>
     <row r="40" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A40" s="3" t="s">
-        <v>467</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C40" s="3" t="s">
+      <c r="A40" s="4" t="s">
+        <v>580</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>581</v>
+      </c>
+      <c r="C40" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D40" s="3" t="s">
@@ -4398,12 +4418,10 @@
       <c r="E40" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F40" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="G40" s="4" t="s">
+      <c r="F40" s="4" t="s">
         <v>579</v>
       </c>
+      <c r="G40" s="4"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="4"/>
@@ -4428,25 +4446,27 @@
       <c r="AC40" s="4"/>
     </row>
     <row r="41" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A41" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="B41" s="4" t="s">
-        <v>345</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>346</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F41" s="4" t="s">
-        <v>347</v>
-      </c>
-      <c r="G41" s="4"/>
+      <c r="A41" s="3" t="s">
+        <v>467</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F41" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G41" s="4" t="s">
+        <v>579</v>
+      </c>
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
       <c r="J41" s="4"/>
@@ -4472,26 +4492,24 @@
     </row>
     <row r="42" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A42" s="4" t="s">
-        <v>404</v>
+        <v>344</v>
       </c>
       <c r="B42" s="4" t="s">
-        <v>270</v>
+        <v>345</v>
       </c>
       <c r="C42" s="4" t="s">
-        <v>398</v>
+        <v>319</v>
       </c>
       <c r="D42" s="4" t="s">
-        <v>399</v>
+        <v>346</v>
       </c>
       <c r="E42" s="4" t="s">
-        <v>342</v>
+        <v>322</v>
       </c>
       <c r="F42" s="4" t="s">
-        <v>403</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>400</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="G42" s="4"/>
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
       <c r="J42" s="4"/>
@@ -4517,25 +4535,25 @@
     </row>
     <row r="43" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A43" s="4" t="s">
-        <v>306</v>
+        <v>404</v>
       </c>
       <c r="B43" s="4" t="s">
-        <v>285</v>
+        <v>270</v>
       </c>
       <c r="C43" s="4" t="s">
-        <v>261</v>
+        <v>398</v>
       </c>
       <c r="D43" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="3" t="s">
-        <v>354</v>
+        <v>399</v>
+      </c>
+      <c r="E43" s="4" t="s">
+        <v>342</v>
       </c>
       <c r="F43" s="4" t="s">
-        <v>284</v>
+        <v>403</v>
       </c>
       <c r="G43" s="4" t="s">
-        <v>182</v>
+        <v>400</v>
       </c>
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
@@ -4561,26 +4579,26 @@
       <c r="AC43" s="4"/>
     </row>
     <row r="44" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A44" s="3" t="s">
-        <v>51</v>
+      <c r="A44" s="4" t="s">
+        <v>306</v>
       </c>
       <c r="B44" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C44" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="C44" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D44" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F44" s="3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G44" s="3" t="s">
-        <v>54</v>
+      <c r="D44" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F44" s="4" t="s">
+        <v>284</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
@@ -4607,25 +4625,25 @@
     </row>
     <row r="45" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B45" s="3" t="s">
-        <v>469</v>
+        <v>51</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>265</v>
       </c>
       <c r="C45" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D45" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="E45" s="3" t="s">
-        <v>342</v>
+        <v>52</v>
+      </c>
+      <c r="E45" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="F45" s="3" t="s">
-        <v>5</v>
+        <v>53</v>
       </c>
       <c r="G45" s="3" t="s">
-        <v>6</v>
+        <v>54</v>
       </c>
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
@@ -4652,25 +4670,25 @@
     </row>
     <row r="46" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>495</v>
-      </c>
-      <c r="C46" s="4" t="s">
+        <v>469</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="E46" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="E46" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F46" s="3" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="G46" s="3" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
@@ -4697,25 +4715,25 @@
     </row>
     <row r="47" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
-        <v>55</v>
+        <v>7</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>622</v>
-      </c>
-      <c r="C47" s="3" t="s">
+        <v>495</v>
+      </c>
+      <c r="C47" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D47" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E47" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="E47" s="4" t="s">
         <v>342</v>
       </c>
       <c r="F47" s="3" t="s">
-        <v>57</v>
+        <v>9</v>
       </c>
       <c r="G47" s="3" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
@@ -4741,26 +4759,26 @@
       <c r="AC47" s="4"/>
     </row>
     <row r="48" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A48" s="4" t="s">
-        <v>361</v>
-      </c>
-      <c r="B48" s="4" t="s">
-        <v>362</v>
-      </c>
-      <c r="C48" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>363</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F48" s="4" t="s">
-        <v>364</v>
-      </c>
-      <c r="G48" s="4" t="s">
-        <v>365</v>
+      <c r="A48" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>622</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F48" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G48" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
@@ -4787,24 +4805,26 @@
     </row>
     <row r="49" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A49" s="4" t="s">
-        <v>540</v>
+        <v>361</v>
       </c>
       <c r="B49" s="4" t="s">
-        <v>539</v>
+        <v>362</v>
       </c>
       <c r="C49" s="4" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>454</v>
+        <v>363</v>
       </c>
       <c r="E49" s="4" t="s">
-        <v>329</v>
+        <v>322</v>
       </c>
       <c r="F49" s="4" t="s">
-        <v>541</v>
-      </c>
-      <c r="G49" s="4"/>
+        <v>364</v>
+      </c>
+      <c r="G49" s="4" t="s">
+        <v>365</v>
+      </c>
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
       <c r="J49" s="4"/>
@@ -4829,24 +4849,25 @@
       <c r="AC49" s="4"/>
     </row>
     <row r="50" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A50" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B50" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C50" s="3" t="s">
-        <v>574</v>
-      </c>
-      <c r="D50" s="3" t="s">
-        <v>139</v>
+      <c r="A50" s="4" t="s">
+        <v>540</v>
+      </c>
+      <c r="B50" s="4" t="s">
+        <v>539</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="E50" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F50" s="3" t="s">
-        <v>73</v>
-      </c>
+      <c r="F50" s="4" t="s">
+        <v>541</v>
+      </c>
+      <c r="G50" s="4"/>
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
       <c r="J50" s="4"/>
@@ -4871,26 +4892,23 @@
       <c r="AC50" s="4"/>
     </row>
     <row r="51" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A51" s="4" t="s">
-        <v>626</v>
-      </c>
-      <c r="B51" s="4" t="s">
-        <v>627</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>261</v>
+      <c r="A51" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>574</v>
       </c>
       <c r="D51" s="3" t="s">
-        <v>67</v>
+        <v>139</v>
       </c>
       <c r="E51" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F51" s="4" t="s">
-        <v>628</v>
-      </c>
-      <c r="G51" s="4" t="s">
-        <v>629</v>
+        <v>329</v>
+      </c>
+      <c r="F51" s="3" t="s">
+        <v>73</v>
       </c>
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
@@ -4917,24 +4935,26 @@
     </row>
     <row r="52" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A52" s="4" t="s">
-        <v>475</v>
+        <v>626</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>476</v>
+        <v>627</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>478</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>479</v>
+        <v>261</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>67</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F52" s="4" t="s">
-        <v>477</v>
-      </c>
-      <c r="G52" s="4"/>
+        <v>628</v>
+      </c>
+      <c r="G52" s="4" t="s">
+        <v>629</v>
+      </c>
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
       <c r="J52" s="4"/>
@@ -4960,22 +4980,22 @@
     </row>
     <row r="53" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A53" s="4" t="s">
-        <v>537</v>
+        <v>475</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>539</v>
+        <v>476</v>
       </c>
       <c r="C53" s="4" t="s">
-        <v>261</v>
+        <v>478</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>454</v>
+        <v>479</v>
       </c>
       <c r="E53" s="4" t="s">
         <v>329</v>
       </c>
       <c r="F53" s="4" t="s">
-        <v>538</v>
+        <v>477</v>
       </c>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
@@ -5003,26 +5023,24 @@
     </row>
     <row r="54" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A54" s="4" t="s">
-        <v>513</v>
+        <v>537</v>
       </c>
       <c r="B54" s="4" t="s">
-        <v>514</v>
+        <v>539</v>
       </c>
       <c r="C54" s="4" t="s">
-        <v>515</v>
-      </c>
-      <c r="D54" s="3" t="s">
-        <v>233</v>
+        <v>261</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="E54" s="4" t="s">
         <v>329</v>
       </c>
       <c r="F54" s="4" t="s">
-        <v>517</v>
-      </c>
-      <c r="G54" s="4" t="s">
-        <v>516</v>
-      </c>
+        <v>538</v>
+      </c>
+      <c r="G54" s="4"/>
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
       <c r="J54" s="4"/>
@@ -5048,24 +5066,26 @@
     </row>
     <row r="55" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A55" s="4" t="s">
-        <v>211</v>
+        <v>513</v>
       </c>
       <c r="B55" s="4" t="s">
-        <v>265</v>
+        <v>514</v>
       </c>
       <c r="C55" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>212</v>
+        <v>515</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E55" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="F55" s="4" t="s">
-        <v>213</v>
-      </c>
-      <c r="G55" s="4"/>
+        <v>517</v>
+      </c>
+      <c r="G55" s="4" t="s">
+        <v>516</v>
+      </c>
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
       <c r="J55" s="4"/>
@@ -5090,27 +5110,25 @@
       <c r="AC55" s="4"/>
     </row>
     <row r="56" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A56" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>585</v>
-      </c>
-      <c r="C56" s="3" t="s">
+      <c r="A56" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>265</v>
+      </c>
+      <c r="C56" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D56" s="3" t="s">
-        <v>60</v>
+      <c r="D56" s="4" t="s">
+        <v>212</v>
       </c>
       <c r="E56" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F56" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="G56" s="4" t="s">
-        <v>584</v>
-      </c>
+      <c r="F56" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="G56" s="4"/>
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
       <c r="J56" s="4"/>
@@ -5136,24 +5154,26 @@
     </row>
     <row r="57" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A57" s="3" t="s">
-        <v>184</v>
+        <v>59</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>305</v>
+        <v>585</v>
       </c>
       <c r="C57" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D57" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E57" s="3" t="s">
-        <v>354</v>
+        <v>60</v>
+      </c>
+      <c r="E57" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="F57" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G57" s="4"/>
+        <v>61</v>
+      </c>
+      <c r="G57" s="4" t="s">
+        <v>584</v>
+      </c>
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
       <c r="J57" s="4"/>
@@ -5178,27 +5198,25 @@
       <c r="AC57" s="4"/>
     </row>
     <row r="58" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A58" s="4" t="s">
-        <v>392</v>
-      </c>
-      <c r="B58" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="C58" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D58" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E58" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F58" s="4" t="s">
-        <v>393</v>
-      </c>
-      <c r="G58" s="4" t="s">
-        <v>394</v>
-      </c>
+      <c r="A58" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>305</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="G58" s="4"/>
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
       <c r="J58" s="4"/>
@@ -5224,25 +5242,25 @@
     </row>
     <row r="59" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A59" s="4" t="s">
-        <v>662</v>
+        <v>392</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>271</v>
+        <v>396</v>
       </c>
       <c r="C59" s="4" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D59" s="4" t="s">
-        <v>662</v>
+        <v>15</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>663</v>
+        <v>393</v>
       </c>
       <c r="G59" s="4" t="s">
-        <v>664</v>
+        <v>394</v>
       </c>
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
@@ -5269,25 +5287,25 @@
     </row>
     <row r="60" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A60" s="4" t="s">
-        <v>406</v>
+        <v>662</v>
       </c>
       <c r="B60" s="4" t="s">
-        <v>409</v>
+        <v>271</v>
       </c>
       <c r="C60" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>15</v>
+        <v>662</v>
       </c>
       <c r="E60" s="4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="F60" s="4" t="s">
-        <v>407</v>
+        <v>663</v>
       </c>
       <c r="G60" s="4" t="s">
-        <v>408</v>
+        <v>664</v>
       </c>
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
@@ -5313,25 +5331,27 @@
       <c r="AC60" s="4"/>
     </row>
     <row r="61" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A61" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>623</v>
-      </c>
-      <c r="C61" s="3" t="s">
+      <c r="A61" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C61" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D61" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="E61" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F61" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="G61" s="4"/>
+      <c r="D61" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E61" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F61" s="4" t="s">
+        <v>407</v>
+      </c>
+      <c r="G61" s="4" t="s">
+        <v>408</v>
+      </c>
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
       <c r="J61" s="4"/>
@@ -5356,27 +5376,25 @@
       <c r="AC61" s="4"/>
     </row>
     <row r="62" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A62" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="B62" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="C62" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>209</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>317</v>
-      </c>
-      <c r="G62" s="4" t="s">
-        <v>316</v>
-      </c>
+      <c r="A62" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>623</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F62" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="G62" s="4"/>
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
       <c r="J62" s="4"/>
@@ -5402,24 +5420,26 @@
     </row>
     <row r="63" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
-        <v>330</v>
+        <v>314</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>331</v>
+        <v>315</v>
       </c>
       <c r="C63" s="4" t="s">
-        <v>319</v>
+        <v>269</v>
       </c>
       <c r="D63" s="4" t="s">
-        <v>333</v>
+        <v>209</v>
       </c>
       <c r="E63" s="4" t="s">
-        <v>322</v>
+        <v>442</v>
       </c>
       <c r="F63" s="4" t="s">
-        <v>332</v>
-      </c>
-      <c r="G63" s="4"/>
+        <v>317</v>
+      </c>
+      <c r="G63" s="4" t="s">
+        <v>316</v>
+      </c>
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
       <c r="J63" s="4"/>
@@ -5445,22 +5465,22 @@
     </row>
     <row r="64" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
-        <v>160</v>
-      </c>
-      <c r="B64" s="3" t="s">
-        <v>485</v>
+        <v>330</v>
+      </c>
+      <c r="B64" s="4" t="s">
+        <v>331</v>
       </c>
       <c r="C64" s="4" t="s">
-        <v>261</v>
+        <v>319</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>248</v>
+        <v>333</v>
       </c>
       <c r="E64" s="4" t="s">
-        <v>466</v>
+        <v>322</v>
       </c>
       <c r="F64" s="4" t="s">
-        <v>161</v>
+        <v>332</v>
       </c>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
@@ -5488,26 +5508,24 @@
     </row>
     <row r="65" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
-        <v>379</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>380</v>
+        <v>160</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>485</v>
       </c>
       <c r="C65" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D65" s="4" t="s">
-        <v>381</v>
+        <v>248</v>
       </c>
       <c r="E65" s="4" t="s">
-        <v>355</v>
+        <v>466</v>
       </c>
       <c r="F65" s="4" t="s">
-        <v>382</v>
-      </c>
-      <c r="G65" s="4" t="s">
-        <v>383</v>
-      </c>
+        <v>161</v>
+      </c>
+      <c r="G65" s="4"/>
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
       <c r="J65" s="4"/>
@@ -5533,25 +5551,25 @@
     </row>
     <row r="66" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A66" s="4" t="s">
-        <v>414</v>
+        <v>379</v>
       </c>
       <c r="B66" s="4" t="s">
-        <v>415</v>
+        <v>380</v>
       </c>
       <c r="C66" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D66" s="4" t="s">
-        <v>416</v>
+        <v>381</v>
       </c>
       <c r="E66" s="4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="F66" s="4" t="s">
-        <v>417</v>
+        <v>382</v>
       </c>
       <c r="G66" s="4" t="s">
-        <v>418</v>
+        <v>383</v>
       </c>
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
@@ -5578,24 +5596,26 @@
     </row>
     <row r="67" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A67" s="4" t="s">
-        <v>545</v>
+        <v>414</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>548</v>
+        <v>415</v>
       </c>
       <c r="C67" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D67" s="4" t="s">
-        <v>546</v>
+        <v>416</v>
       </c>
       <c r="E67" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F67" s="4" t="s">
-        <v>547</v>
-      </c>
-      <c r="G67" s="4"/>
+        <v>417</v>
+      </c>
+      <c r="G67" s="4" t="s">
+        <v>418</v>
+      </c>
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
       <c r="J67" s="4"/>
@@ -5620,23 +5640,23 @@
       <c r="AC67" s="4"/>
     </row>
     <row r="68" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A68" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B68" s="3" t="s">
-        <v>498</v>
-      </c>
-      <c r="C68" s="3" t="s">
+      <c r="A68" s="4" t="s">
+        <v>545</v>
+      </c>
+      <c r="B68" s="4" t="s">
+        <v>548</v>
+      </c>
+      <c r="C68" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D68" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F68" s="3" t="s">
-        <v>13</v>
+      <c r="D68" s="4" t="s">
+        <v>546</v>
+      </c>
+      <c r="E68" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F68" s="4" t="s">
+        <v>547</v>
       </c>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
@@ -5664,23 +5684,24 @@
     </row>
     <row r="69" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="s">
-        <v>66</v>
+        <v>11</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>625</v>
+        <v>498</v>
       </c>
       <c r="C69" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D69" s="3" t="s">
-        <v>67</v>
+        <v>12</v>
       </c>
       <c r="E69" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F69" s="3" t="s">
-        <v>624</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="G69" s="4"/>
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
       <c r="J69" s="4"/>
@@ -5705,25 +5726,24 @@
       <c r="AC69" s="4"/>
     </row>
     <row r="70" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A70" s="4" t="s">
-        <v>458</v>
-      </c>
-      <c r="B70" s="4" t="s">
-        <v>409</v>
-      </c>
-      <c r="C70" s="4" t="s">
+      <c r="A70" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>625</v>
+      </c>
+      <c r="C70" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D70" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F70" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G70" s="4"/>
+      <c r="D70" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E70" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F70" s="3" t="s">
+        <v>624</v>
+      </c>
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
       <c r="J70" s="4"/>
@@ -5748,27 +5768,25 @@
       <c r="AC70" s="4"/>
     </row>
     <row r="71" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A71" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>586</v>
-      </c>
-      <c r="C71" s="3" t="s">
+      <c r="A71" s="4" t="s">
+        <v>458</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>409</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D71" s="3" t="s">
-        <v>69</v>
+      <c r="D71" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F71" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="G71" s="3" t="s">
-        <v>71</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F71" s="4" t="s">
+        <v>457</v>
+      </c>
+      <c r="G71" s="4"/>
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
       <c r="J71" s="4"/>
@@ -5793,26 +5811,26 @@
       <c r="AC71" s="4"/>
     </row>
     <row r="72" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A72" s="4" t="s">
-        <v>199</v>
-      </c>
-      <c r="B72" s="4" t="s">
-        <v>591</v>
-      </c>
-      <c r="C72" s="4" t="s">
+      <c r="A72" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="B72" s="3" t="s">
+        <v>586</v>
+      </c>
+      <c r="C72" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>200</v>
+      <c r="D72" s="3" t="s">
+        <v>69</v>
       </c>
       <c r="E72" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F72" s="4" t="s">
-        <v>201</v>
-      </c>
-      <c r="G72" s="4" t="s">
-        <v>202</v>
+      <c r="F72" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="G72" s="3" t="s">
+        <v>71</v>
       </c>
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
@@ -5838,23 +5856,26 @@
       <c r="AC72" s="4"/>
     </row>
     <row r="73" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A73" s="3" t="s">
-        <v>26</v>
+      <c r="A73" s="4" t="s">
+        <v>199</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C73" s="3" t="s">
-        <v>273</v>
-      </c>
-      <c r="D73" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="E73" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F73" s="3" t="s">
-        <v>28</v>
+        <v>591</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="G73" s="4" t="s">
+        <v>202</v>
       </c>
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
@@ -5880,26 +5901,23 @@
       <c r="AC73" s="4"/>
     </row>
     <row r="74" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A74" s="4" t="s">
-        <v>427</v>
+      <c r="A74" s="3" t="s">
+        <v>26</v>
       </c>
       <c r="B74" s="4" t="s">
-        <v>587</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>428</v>
-      </c>
-      <c r="E74" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F74" s="4" t="s">
-        <v>429</v>
-      </c>
-      <c r="G74" s="4" t="s">
-        <v>430</v>
+        <v>265</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="D74" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F74" s="3" t="s">
+        <v>28</v>
       </c>
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
@@ -5926,24 +5944,26 @@
     </row>
     <row r="75" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A75" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="B75" s="3" t="s">
-        <v>588</v>
+        <v>427</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>587</v>
       </c>
       <c r="C75" s="4" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>85</v>
+        <v>428</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F75" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="G75" s="4"/>
+        <v>429</v>
+      </c>
+      <c r="G75" s="4" t="s">
+        <v>430</v>
+      </c>
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
       <c r="J75" s="4"/>
@@ -5969,22 +5989,22 @@
     </row>
     <row r="76" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A76" s="4" t="s">
-        <v>174</v>
-      </c>
-      <c r="B76" s="4" t="s">
-        <v>258</v>
+        <v>266</v>
+      </c>
+      <c r="B76" s="3" t="s">
+        <v>588</v>
       </c>
       <c r="C76" s="4" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>168</v>
+        <v>85</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="F76" s="4" t="s">
-        <v>175</v>
+        <v>267</v>
       </c>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
@@ -6012,13 +6032,13 @@
     </row>
     <row r="77" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A77" s="4" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="B77" s="4" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D77" s="4" t="s">
         <v>168</v>
@@ -6027,7 +6047,7 @@
         <v>329</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
@@ -6055,22 +6075,22 @@
     </row>
     <row r="78" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A78" s="4" t="s">
-        <v>297</v>
+        <v>178</v>
       </c>
       <c r="B78" s="4" t="s">
-        <v>271</v>
+        <v>263</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D78" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E78" s="3" t="s">
-        <v>354</v>
+        <v>168</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="F78" s="4" t="s">
-        <v>298</v>
+        <v>179</v>
       </c>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
@@ -6097,23 +6117,23 @@
       <c r="AC78" s="4"/>
     </row>
     <row r="79" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A79" s="3" t="s">
-        <v>185</v>
-      </c>
-      <c r="B79" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="C79" s="3" t="s">
-        <v>303</v>
-      </c>
-      <c r="D79" s="3" t="s">
+      <c r="A79" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>271</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D79" s="4" t="s">
         <v>1</v>
       </c>
       <c r="E79" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F79" s="3" t="s">
-        <v>186</v>
+      <c r="F79" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
@@ -6140,27 +6160,25 @@
       <c r="AC79" s="4"/>
     </row>
     <row r="80" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A80" s="4" t="s">
-        <v>196</v>
-      </c>
-      <c r="B80" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>261</v>
+      <c r="A80" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="B80" s="3" t="s">
+        <v>302</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>303</v>
       </c>
       <c r="D80" s="3" t="s">
-        <v>247</v>
+        <v>1</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="F80" s="4" t="s">
-        <v>197</v>
-      </c>
-      <c r="G80" s="4" t="s">
-        <v>198</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F80" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="G80" s="4"/>
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
       <c r="J80" s="4"/>
@@ -6186,24 +6204,26 @@
     </row>
     <row r="81" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A81" s="4" t="s">
-        <v>531</v>
+        <v>196</v>
       </c>
       <c r="B81" s="4" t="s">
-        <v>532</v>
+        <v>480</v>
       </c>
       <c r="C81" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D81" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>329</v>
+      <c r="D81" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>466</v>
       </c>
       <c r="F81" s="4" t="s">
-        <v>533</v>
-      </c>
-      <c r="G81" s="4"/>
+        <v>197</v>
+      </c>
+      <c r="G81" s="4" t="s">
+        <v>198</v>
+      </c>
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
       <c r="J81" s="4"/>
@@ -6228,24 +6248,25 @@
       <c r="AC81" s="4"/>
     </row>
     <row r="82" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A82" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B82" s="3" t="s">
-        <v>271</v>
-      </c>
-      <c r="C82" s="3" t="s">
+      <c r="A82" s="4" t="s">
+        <v>531</v>
+      </c>
+      <c r="B82" s="4" t="s">
+        <v>532</v>
+      </c>
+      <c r="C82" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D82" s="3" t="s">
-        <v>15</v>
+      <c r="D82" s="4" t="s">
+        <v>454</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F82" s="3" t="s">
-        <v>16</v>
-      </c>
+        <v>329</v>
+      </c>
+      <c r="F82" s="4" t="s">
+        <v>533</v>
+      </c>
+      <c r="G82" s="4"/>
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
       <c r="J82" s="4"/>
@@ -6270,26 +6291,23 @@
       <c r="AC82" s="4"/>
     </row>
     <row r="83" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A83" s="4" t="s">
-        <v>375</v>
-      </c>
-      <c r="B83" s="4" t="s">
-        <v>376</v>
-      </c>
-      <c r="C83" s="4" t="s">
+      <c r="A83" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B83" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="C83" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>377</v>
+      <c r="D83" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F83" s="4" t="s">
-        <v>378</v>
-      </c>
-      <c r="G83" s="4" t="s">
-        <v>377</v>
+        <v>342</v>
+      </c>
+      <c r="F83" s="3" t="s">
+        <v>16</v>
       </c>
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
@@ -6316,24 +6334,26 @@
     </row>
     <row r="84" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
-        <v>299</v>
+        <v>375</v>
       </c>
       <c r="B84" s="4" t="s">
-        <v>300</v>
+        <v>376</v>
       </c>
       <c r="C84" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D84" s="4" t="s">
-        <v>1</v>
-      </c>
-      <c r="E84" s="3" t="s">
+        <v>377</v>
+      </c>
+      <c r="E84" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F84" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="G84" s="4"/>
+        <v>378</v>
+      </c>
+      <c r="G84" s="4" t="s">
+        <v>377</v>
+      </c>
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
       <c r="J84" s="4"/>
@@ -6358,27 +6378,25 @@
       <c r="AC84" s="4"/>
     </row>
     <row r="85" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A85" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>553</v>
-      </c>
-      <c r="C85" s="3" t="s">
+      <c r="A85" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="C85" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D85" s="3" t="s">
-        <v>75</v>
+      <c r="D85" s="4" t="s">
+        <v>1</v>
       </c>
       <c r="E85" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F85" s="3" t="s">
-        <v>552</v>
-      </c>
-      <c r="G85" s="3" t="s">
-        <v>76</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F85" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G85" s="4"/>
       <c r="I85" s="4"/>
       <c r="J85" s="4"/>
       <c r="K85" s="4"/>
@@ -6402,26 +6420,26 @@
       <c r="AC85" s="4"/>
     </row>
     <row r="86" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A86" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="B86" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>389</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F86" s="4" t="s">
-        <v>391</v>
-      </c>
-      <c r="G86" s="4" t="s">
-        <v>395</v>
+      <c r="A86" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B86" s="3" t="s">
+        <v>553</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D86" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E86" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>552</v>
+      </c>
+      <c r="G86" s="3" t="s">
+        <v>76</v>
       </c>
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
@@ -6448,25 +6466,25 @@
     </row>
     <row r="87" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
-        <v>554</v>
+        <v>388</v>
       </c>
       <c r="B87" s="4" t="s">
-        <v>555</v>
+        <v>390</v>
       </c>
       <c r="C87" s="4" t="s">
-        <v>261</v>
+        <v>389</v>
       </c>
       <c r="D87" s="4" t="s">
-        <v>556</v>
+        <v>15</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F87" s="4" t="s">
-        <v>557</v>
+        <v>391</v>
       </c>
       <c r="G87" s="4" t="s">
-        <v>558</v>
+        <v>395</v>
       </c>
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
@@ -6493,25 +6511,25 @@
     </row>
     <row r="88" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A88" s="4" t="s">
-        <v>203</v>
+        <v>554</v>
       </c>
       <c r="B88" s="4" t="s">
-        <v>630</v>
+        <v>555</v>
       </c>
       <c r="C88" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D88" s="4" t="s">
-        <v>204</v>
+        <v>556</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F88" s="4" t="s">
-        <v>205</v>
+        <v>557</v>
       </c>
       <c r="G88" s="4" t="s">
-        <v>206</v>
+        <v>558</v>
       </c>
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
@@ -6538,25 +6556,25 @@
     </row>
     <row r="89" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A89" s="4" t="s">
-        <v>187</v>
+        <v>203</v>
       </c>
       <c r="B89" s="4" t="s">
-        <v>271</v>
+        <v>630</v>
       </c>
       <c r="C89" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>188</v>
+        <v>204</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F89" s="4" t="s">
-        <v>189</v>
+        <v>205</v>
       </c>
       <c r="G89" s="4" t="s">
-        <v>190</v>
+        <v>206</v>
       </c>
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
@@ -6583,24 +6601,26 @@
     </row>
     <row r="90" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A90" s="4" t="s">
-        <v>456</v>
+        <v>187</v>
       </c>
       <c r="B90" s="4" t="s">
-        <v>459</v>
+        <v>271</v>
       </c>
       <c r="C90" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D90" s="4" t="s">
-        <v>454</v>
+        <v>188</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="F90" s="4" t="s">
-        <v>457</v>
-      </c>
-      <c r="G90" s="4"/>
+        <v>189</v>
+      </c>
+      <c r="G90" s="4" t="s">
+        <v>190</v>
+      </c>
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
       <c r="J90" s="4"/>
@@ -6626,22 +6646,22 @@
     </row>
     <row r="91" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A91" s="4" t="s">
-        <v>423</v>
+        <v>456</v>
       </c>
       <c r="B91" s="4" t="s">
-        <v>315</v>
+        <v>459</v>
       </c>
       <c r="C91" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>416</v>
+        <v>454</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F91" s="4" t="s">
-        <v>424</v>
+        <v>457</v>
       </c>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
@@ -6669,22 +6689,22 @@
     </row>
     <row r="92" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A92" s="4" t="s">
-        <v>599</v>
+        <v>423</v>
       </c>
       <c r="B92" s="4" t="s">
-        <v>600</v>
+        <v>315</v>
       </c>
       <c r="C92" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D92" s="3" t="s">
-        <v>124</v>
+      <c r="D92" s="4" t="s">
+        <v>416</v>
       </c>
       <c r="E92" s="4" t="s">
         <v>342</v>
       </c>
       <c r="F92" s="4" t="s">
-        <v>601</v>
+        <v>424</v>
       </c>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
@@ -6712,26 +6732,24 @@
     </row>
     <row r="93" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A93" s="4" t="s">
-        <v>171</v>
+        <v>599</v>
       </c>
       <c r="B93" s="4" t="s">
-        <v>258</v>
+        <v>600</v>
       </c>
       <c r="C93" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D93" s="4" t="s">
-        <v>168</v>
+      <c r="D93" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F93" s="4" t="s">
-        <v>172</v>
-      </c>
-      <c r="G93" s="4" t="s">
-        <v>173</v>
-      </c>
+        <v>601</v>
+      </c>
+      <c r="G93" s="4"/>
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
       <c r="J93" s="4"/>
@@ -6757,24 +6775,26 @@
     </row>
     <row r="94" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A94" s="4" t="s">
-        <v>351</v>
+        <v>171</v>
       </c>
       <c r="B94" s="4" t="s">
-        <v>335</v>
+        <v>258</v>
       </c>
       <c r="C94" s="4" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="D94" s="4" t="s">
-        <v>352</v>
+        <v>168</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>322</v>
+        <v>329</v>
       </c>
       <c r="F94" s="4" t="s">
-        <v>353</v>
-      </c>
-      <c r="G94" s="4"/>
+        <v>172</v>
+      </c>
+      <c r="G94" s="4" t="s">
+        <v>173</v>
+      </c>
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
       <c r="J94" s="4"/>
@@ -6800,22 +6820,22 @@
     </row>
     <row r="95" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A95" s="4" t="s">
-        <v>294</v>
+        <v>351</v>
       </c>
       <c r="B95" s="4" t="s">
-        <v>295</v>
+        <v>335</v>
       </c>
       <c r="C95" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D95" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E95" s="3" t="s">
-        <v>354</v>
+        <v>319</v>
+      </c>
+      <c r="D95" s="4" t="s">
+        <v>352</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>322</v>
       </c>
       <c r="F95" s="4" t="s">
-        <v>296</v>
+        <v>353</v>
       </c>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
@@ -6842,23 +6862,23 @@
       <c r="AC95" s="4"/>
     </row>
     <row r="96" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A96" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="B96" s="3" t="s">
-        <v>448</v>
-      </c>
-      <c r="C96" s="3" t="s">
-        <v>447</v>
+      <c r="A96" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="B96" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>261</v>
       </c>
       <c r="D96" s="3" t="s">
-        <v>78</v>
+        <v>1</v>
       </c>
       <c r="E96" s="3" t="s">
         <v>354</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>446</v>
+      <c r="F96" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
@@ -6886,26 +6906,24 @@
     </row>
     <row r="97" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A97" s="3" t="s">
-        <v>36</v>
+        <v>77</v>
       </c>
       <c r="B97" s="3" t="s">
-        <v>616</v>
+        <v>448</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>615</v>
+        <v>447</v>
       </c>
       <c r="D97" s="3" t="s">
-        <v>36</v>
+        <v>78</v>
       </c>
       <c r="E97" s="3" t="s">
         <v>354</v>
       </c>
       <c r="F97" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>38</v>
-      </c>
+        <v>446</v>
+      </c>
+      <c r="G97" s="4"/>
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
       <c r="J97" s="4"/>
@@ -6930,25 +6948,27 @@
       <c r="AC97" s="4"/>
     </row>
     <row r="98" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A98" s="4" t="s">
-        <v>282</v>
-      </c>
-      <c r="B98" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>260</v>
-      </c>
-      <c r="D98" s="4" t="s">
-        <v>243</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F98" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G98" s="4"/>
+      <c r="A98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>616</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>615</v>
+      </c>
+      <c r="D98" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E98" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F98" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="G98" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
       <c r="J98" s="4"/>
@@ -6974,26 +6994,24 @@
     </row>
     <row r="99" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A99" s="4" t="s">
-        <v>607</v>
+        <v>282</v>
       </c>
       <c r="B99" s="4" t="s">
-        <v>415</v>
+        <v>265</v>
       </c>
       <c r="C99" s="4" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D99" s="4" t="s">
-        <v>608</v>
+        <v>243</v>
       </c>
       <c r="E99" s="4" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="F99" s="4" t="s">
-        <v>609</v>
-      </c>
-      <c r="G99" s="4" t="s">
-        <v>610</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="G99" s="4"/>
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
       <c r="J99" s="4"/>
@@ -7018,25 +7036,27 @@
       <c r="AC99" s="4"/>
     </row>
     <row r="100" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A100" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="B100" s="3" t="s">
-        <v>617</v>
-      </c>
-      <c r="C100" s="3" t="s">
-        <v>260</v>
-      </c>
-      <c r="D100" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="E100" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="G100" s="4"/>
+      <c r="A100" s="4" t="s">
+        <v>607</v>
+      </c>
+      <c r="B100" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>608</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F100" s="4" t="s">
+        <v>609</v>
+      </c>
+      <c r="G100" s="4" t="s">
+        <v>610</v>
+      </c>
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
       <c r="J100" s="4"/>
@@ -7061,23 +7081,23 @@
       <c r="AC100" s="4"/>
     </row>
     <row r="101" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A101" s="4" t="s">
-        <v>310</v>
-      </c>
-      <c r="B101" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D101" s="4" t="s">
-        <v>312</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F101" s="4" t="s">
-        <v>313</v>
+      <c r="A101" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>617</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>260</v>
+      </c>
+      <c r="D101" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E101" s="3" t="s">
+        <v>354</v>
+      </c>
+      <c r="F101" s="3" t="s">
+        <v>80</v>
       </c>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
@@ -7104,27 +7124,25 @@
       <c r="AC101" s="4"/>
     </row>
     <row r="102" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A102" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="C102" s="3" t="s">
+      <c r="A102" s="4" t="s">
+        <v>310</v>
+      </c>
+      <c r="B102" s="4" t="s">
+        <v>311</v>
+      </c>
+      <c r="C102" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D102" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="E102" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>84</v>
-      </c>
+      <c r="D102" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F102" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G102" s="4"/>
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
       <c r="J102" s="4"/>
@@ -7150,25 +7168,25 @@
     </row>
     <row r="103" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A103" s="3" t="s">
-        <v>218</v>
+        <v>81</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>588</v>
+        <v>343</v>
       </c>
       <c r="C103" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D103" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E103" s="4" t="s">
-        <v>355</v>
+        <v>82</v>
+      </c>
+      <c r="E103" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="F103" s="3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G103" s="3" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
@@ -7194,25 +7212,27 @@
       <c r="AC103" s="4"/>
     </row>
     <row r="104" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A104" s="4" t="s">
-        <v>658</v>
-      </c>
-      <c r="B104" s="4" t="s">
-        <v>659</v>
-      </c>
-      <c r="C104" s="4" t="s">
+      <c r="A104" s="3" t="s">
+        <v>218</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>588</v>
+      </c>
+      <c r="C104" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D104" s="4" t="s">
-        <v>661</v>
+      <c r="D104" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="E104" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F104" s="4" t="s">
-        <v>660</v>
-      </c>
-      <c r="G104" s="4"/>
+        <v>355</v>
+      </c>
+      <c r="F104" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="G104" s="3" t="s">
+        <v>87</v>
+      </c>
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
       <c r="J104" s="4"/>
@@ -7238,22 +7258,22 @@
     </row>
     <row r="105" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
-        <v>275</v>
+        <v>658</v>
       </c>
       <c r="B105" s="4" t="s">
-        <v>274</v>
+        <v>659</v>
       </c>
       <c r="C105" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D105" s="4" t="s">
-        <v>209</v>
+        <v>661</v>
       </c>
       <c r="E105" s="4" t="s">
-        <v>442</v>
+        <v>342</v>
       </c>
       <c r="F105" s="4" t="s">
-        <v>210</v>
+        <v>660</v>
       </c>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
@@ -7280,27 +7300,25 @@
       <c r="AC105" s="4"/>
     </row>
     <row r="106" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A106" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="B106" s="3" t="s">
-        <v>486</v>
-      </c>
-      <c r="C106" s="3" t="s">
-        <v>261</v>
+      <c r="A106" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="B106" s="4" t="s">
+        <v>274</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>269</v>
       </c>
       <c r="D106" s="4" t="s">
-        <v>248</v>
+        <v>209</v>
       </c>
       <c r="E106" s="4" t="s">
-        <v>466</v>
+        <v>442</v>
       </c>
       <c r="F106" s="4" t="s">
-        <v>141</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>89</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="G106" s="4"/>
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
       <c r="J106" s="4"/>
@@ -7325,26 +7343,26 @@
       <c r="AC106" s="4"/>
     </row>
     <row r="107" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A107" s="4" t="s">
-        <v>518</v>
-      </c>
-      <c r="B107" s="4" t="s">
-        <v>519</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D107" s="3" t="s">
-        <v>233</v>
+      <c r="A107" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>486</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E107" s="4" t="s">
-        <v>329</v>
+        <v>466</v>
       </c>
       <c r="F107" s="4" t="s">
-        <v>520</v>
-      </c>
-      <c r="G107" s="4" t="s">
-        <v>521</v>
+        <v>141</v>
+      </c>
+      <c r="G107" s="3" t="s">
+        <v>89</v>
       </c>
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
@@ -7370,25 +7388,27 @@
       <c r="AC107" s="4"/>
     </row>
     <row r="108" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A108" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="B108" s="3" t="s">
-        <v>589</v>
-      </c>
-      <c r="C108" s="3" t="s">
-        <v>261</v>
+      <c r="A108" s="4" t="s">
+        <v>518</v>
+      </c>
+      <c r="B108" s="4" t="s">
+        <v>519</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>511</v>
       </c>
       <c r="D108" s="3" t="s">
-        <v>91</v>
+        <v>233</v>
       </c>
       <c r="E108" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="G108" s="4"/>
+        <v>329</v>
+      </c>
+      <c r="F108" s="4" t="s">
+        <v>520</v>
+      </c>
+      <c r="G108" s="4" t="s">
+        <v>521</v>
+      </c>
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
       <c r="J108" s="4"/>
@@ -7414,22 +7434,22 @@
     </row>
     <row r="109" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A109" s="3" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B109" s="3" t="s">
-        <v>485</v>
+        <v>589</v>
       </c>
       <c r="C109" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D109" s="4" t="s">
-        <v>248</v>
+      <c r="D109" s="3" t="s">
+        <v>91</v>
       </c>
       <c r="E109" s="4" t="s">
-        <v>466</v>
+        <v>355</v>
       </c>
       <c r="F109" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
@@ -7456,23 +7476,23 @@
       <c r="AC109" s="4"/>
     </row>
     <row r="110" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A110" s="4" t="s">
-        <v>307</v>
-      </c>
-      <c r="B110" s="4" t="s">
-        <v>285</v>
-      </c>
-      <c r="C110" s="4" t="s">
+      <c r="A110" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>485</v>
+      </c>
+      <c r="C110" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D110" s="4" t="s">
-        <v>308</v>
-      </c>
-      <c r="E110" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F110" s="4" t="s">
-        <v>309</v>
+        <v>248</v>
+      </c>
+      <c r="E110" s="4" t="s">
+        <v>466</v>
+      </c>
+      <c r="F110" s="3" t="s">
+        <v>94</v>
       </c>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
@@ -7499,27 +7519,25 @@
       <c r="AC110" s="4"/>
     </row>
     <row r="111" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A111" s="3" t="s">
-        <v>631</v>
-      </c>
-      <c r="B111" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="C111" s="3" t="s">
+      <c r="A111" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="B111" s="4" t="s">
+        <v>285</v>
+      </c>
+      <c r="C111" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D111" s="3" t="s">
-        <v>95</v>
+      <c r="D111" s="4" t="s">
+        <v>308</v>
       </c>
       <c r="E111" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="G111" s="4" t="s">
-        <v>632</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F111" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G111" s="4"/>
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
       <c r="J111" s="4"/>
@@ -7544,25 +7562,27 @@
       <c r="AC111" s="4"/>
     </row>
     <row r="112" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A112" s="4" t="s">
-        <v>254</v>
-      </c>
-      <c r="B112" s="4" t="s">
-        <v>256</v>
-      </c>
-      <c r="C112" s="4" t="s">
+      <c r="A112" s="3" t="s">
+        <v>631</v>
+      </c>
+      <c r="B112" s="3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C112" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D112" s="4" t="s">
-        <v>168</v>
-      </c>
-      <c r="E112" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F112" s="4" t="s">
-        <v>255</v>
-      </c>
-      <c r="G112" s="4"/>
+      <c r="D112" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E112" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F112" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="G112" s="4" t="s">
+        <v>632</v>
+      </c>
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
       <c r="J112" s="4"/>
@@ -7587,23 +7607,23 @@
       <c r="AC112" s="4"/>
     </row>
     <row r="113" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A113" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B113" s="3" t="s">
-        <v>497</v>
-      </c>
-      <c r="C113" s="3" t="s">
+      <c r="A113" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="B113" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="C113" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D113" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>97</v>
+      <c r="D113" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="E113" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F113" s="4" t="s">
+        <v>255</v>
       </c>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
@@ -7630,27 +7650,25 @@
       <c r="AC113" s="4"/>
     </row>
     <row r="114" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A114" s="4" t="s">
-        <v>222</v>
-      </c>
-      <c r="B114" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C114" s="4" t="s">
+      <c r="A114" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>497</v>
+      </c>
+      <c r="C114" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D114" s="4" t="s">
-        <v>223</v>
-      </c>
-      <c r="E114" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F114" s="4" t="s">
-        <v>224</v>
-      </c>
-      <c r="G114" s="4" t="s">
-        <v>225</v>
-      </c>
+      <c r="D114" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="E114" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F114" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="G114" s="4"/>
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
       <c r="J114" s="4"/>
@@ -7676,24 +7694,26 @@
     </row>
     <row r="115" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A115" s="4" t="s">
-        <v>451</v>
+        <v>222</v>
       </c>
       <c r="B115" s="4" t="s">
-        <v>449</v>
+        <v>271</v>
       </c>
       <c r="C115" s="4" t="s">
-        <v>447</v>
-      </c>
-      <c r="D115" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="E115" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>223</v>
+      </c>
+      <c r="E115" s="4" t="s">
         <v>354</v>
       </c>
       <c r="F115" s="4" t="s">
-        <v>450</v>
-      </c>
-      <c r="G115" s="4"/>
+        <v>224</v>
+      </c>
+      <c r="G115" s="4" t="s">
+        <v>225</v>
+      </c>
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
       <c r="J115" s="4"/>
@@ -7718,27 +7738,25 @@
       <c r="AC115" s="4"/>
     </row>
     <row r="116" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A116" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="B116" s="3" t="s">
-        <v>635</v>
-      </c>
-      <c r="C116" s="3" t="s">
-        <v>261</v>
+      <c r="A116" s="4" t="s">
+        <v>451</v>
+      </c>
+      <c r="B116" s="4" t="s">
+        <v>449</v>
+      </c>
+      <c r="C116" s="4" t="s">
+        <v>447</v>
       </c>
       <c r="D116" s="3" t="s">
-        <v>162</v>
+        <v>78</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>100</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="F116" s="4" t="s">
+        <v>450</v>
+      </c>
+      <c r="G116" s="4"/>
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
       <c r="J116" s="4"/>
@@ -7763,25 +7781,27 @@
       <c r="AC116" s="4"/>
     </row>
     <row r="117" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A117" s="4" t="s">
-        <v>318</v>
-      </c>
-      <c r="B117" s="4" t="s">
-        <v>324</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D117" s="4" t="s">
-        <v>323</v>
-      </c>
-      <c r="E117" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F117" s="4" t="s">
-        <v>320</v>
-      </c>
-      <c r="G117" s="4"/>
+      <c r="A117" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B117" s="3" t="s">
+        <v>635</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D117" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E117" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F117" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="G117" s="3" t="s">
+        <v>100</v>
+      </c>
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
       <c r="J117" s="4"/>
@@ -7806,27 +7826,25 @@
       <c r="AC117" s="4"/>
     </row>
     <row r="118" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A118" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="B118" s="3" t="s">
-        <v>650</v>
-      </c>
-      <c r="C118" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D118" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="E118" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>104</v>
-      </c>
+      <c r="A118" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="B118" s="4" t="s">
+        <v>324</v>
+      </c>
+      <c r="C118" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>323</v>
+      </c>
+      <c r="E118" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F118" s="4" t="s">
+        <v>320</v>
+      </c>
+      <c r="G118" s="4"/>
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
       <c r="J118" s="4"/>
@@ -7852,24 +7870,26 @@
     </row>
     <row r="119" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A119" s="3" t="s">
-        <v>39</v>
+        <v>101</v>
       </c>
       <c r="B119" s="3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C119" s="3" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D119" s="3" t="s">
-        <v>40</v>
+        <v>102</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>342</v>
+        <v>355</v>
       </c>
       <c r="F119" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="G119" s="4"/>
+        <v>103</v>
+      </c>
+      <c r="G119" s="3" t="s">
+        <v>104</v>
+      </c>
       <c r="H119" s="4"/>
       <c r="I119" s="4"/>
       <c r="J119" s="4"/>
@@ -7895,26 +7915,24 @@
     </row>
     <row r="120" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A120" s="3" t="s">
-        <v>137</v>
+        <v>39</v>
       </c>
       <c r="B120" s="3" t="s">
-        <v>646</v>
+        <v>651</v>
       </c>
       <c r="C120" s="3" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D120" s="3" t="s">
-        <v>647</v>
+        <v>40</v>
       </c>
       <c r="E120" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F120" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="G120" s="3" t="s">
-        <v>648</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="G120" s="4"/>
       <c r="H120" s="4"/>
       <c r="I120" s="4"/>
       <c r="J120" s="4"/>
@@ -7939,25 +7957,27 @@
       <c r="AC120" s="4"/>
     </row>
     <row r="121" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A121" s="4" t="s">
-        <v>499</v>
-      </c>
-      <c r="B121" s="4" t="s">
-        <v>500</v>
-      </c>
-      <c r="C121" s="4" t="s">
+      <c r="A121" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B121" s="3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C121" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D121" s="3" t="s">
-        <v>12</v>
+        <v>647</v>
       </c>
       <c r="E121" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F121" s="4" t="s">
-        <v>501</v>
-      </c>
-      <c r="G121" s="4"/>
+      <c r="F121" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="G121" s="3" t="s">
+        <v>648</v>
+      </c>
       <c r="H121" s="4"/>
       <c r="I121" s="4"/>
       <c r="J121" s="4"/>
@@ -7982,23 +8002,23 @@
       <c r="AC121" s="4"/>
     </row>
     <row r="122" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A122" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="B122" s="3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C122" s="3" t="s">
+      <c r="A122" s="4" t="s">
+        <v>499</v>
+      </c>
+      <c r="B122" s="4" t="s">
+        <v>500</v>
+      </c>
+      <c r="C122" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D122" s="3" t="s">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F122" s="3" t="s">
-        <v>31</v>
+        <v>342</v>
+      </c>
+      <c r="F122" s="4" t="s">
+        <v>501</v>
       </c>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
@@ -8025,23 +8045,23 @@
       <c r="AC122" s="4"/>
     </row>
     <row r="123" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A123" s="4" t="s">
-        <v>567</v>
-      </c>
-      <c r="B123" s="4" t="s">
-        <v>568</v>
-      </c>
-      <c r="C123" s="4" t="s">
+      <c r="A123" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B123" s="3" t="s">
+        <v>652</v>
+      </c>
+      <c r="C123" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D123" s="4" t="s">
-        <v>556</v>
-      </c>
-      <c r="E123" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F123" s="4" t="s">
-        <v>569</v>
+      <c r="D123" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E123" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F123" s="3" t="s">
+        <v>31</v>
       </c>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
@@ -8069,26 +8089,24 @@
     </row>
     <row r="124" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A124" s="4" t="s">
-        <v>526</v>
+        <v>567</v>
       </c>
       <c r="B124" s="4" t="s">
-        <v>529</v>
+        <v>568</v>
       </c>
       <c r="C124" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D124" s="4" t="s">
-        <v>527</v>
+        <v>556</v>
       </c>
       <c r="E124" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="F124" s="4" t="s">
-        <v>528</v>
-      </c>
-      <c r="G124" s="4" t="s">
-        <v>530</v>
-      </c>
+        <v>569</v>
+      </c>
+      <c r="G124" s="4"/>
       <c r="H124" s="4"/>
       <c r="I124" s="4"/>
       <c r="J124" s="4"/>
@@ -8113,25 +8131,27 @@
       <c r="AC124" s="4"/>
     </row>
     <row r="125" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A125" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B125" s="3" t="s">
-        <v>581</v>
-      </c>
-      <c r="C125" s="3" t="s">
+      <c r="A125" s="4" t="s">
+        <v>526</v>
+      </c>
+      <c r="B125" s="4" t="s">
+        <v>529</v>
+      </c>
+      <c r="C125" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D125" s="3" t="s">
-        <v>106</v>
+      <c r="D125" s="4" t="s">
+        <v>527</v>
       </c>
       <c r="E125" s="4" t="s">
         <v>355</v>
       </c>
-      <c r="F125" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G125" s="4"/>
+      <c r="F125" s="4" t="s">
+        <v>528</v>
+      </c>
+      <c r="G125" s="4" t="s">
+        <v>530</v>
+      </c>
       <c r="H125" s="4"/>
       <c r="I125" s="4"/>
       <c r="J125" s="4"/>
@@ -8157,26 +8177,24 @@
     </row>
     <row r="126" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A126" s="3" t="s">
-        <v>639</v>
+        <v>105</v>
       </c>
       <c r="B126" s="3" t="s">
-        <v>640</v>
+        <v>581</v>
       </c>
       <c r="C126" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D126" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="E126" s="3" t="s">
-        <v>342</v>
+        <v>106</v>
+      </c>
+      <c r="E126" s="4" t="s">
+        <v>355</v>
       </c>
       <c r="F126" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="G126" s="3" t="s">
-        <v>110</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="G126" s="4"/>
       <c r="H126" s="4"/>
       <c r="I126" s="4"/>
       <c r="J126" s="4"/>
@@ -8202,24 +8220,26 @@
     </row>
     <row r="127" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A127" s="3" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
       <c r="B127" s="3" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="C127" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D127" s="3" t="s">
-        <v>56</v>
+        <v>108</v>
       </c>
       <c r="E127" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F127" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G127" s="4"/>
+        <v>109</v>
+      </c>
+      <c r="G127" s="3" t="s">
+        <v>110</v>
+      </c>
       <c r="H127" s="4"/>
       <c r="I127" s="4"/>
       <c r="J127" s="4"/>
@@ -8244,23 +8264,23 @@
       <c r="AC127" s="4"/>
     </row>
     <row r="128" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A128" s="4" t="s">
-        <v>463</v>
-      </c>
-      <c r="B128" s="4" t="s">
-        <v>464</v>
-      </c>
-      <c r="C128" s="4" t="s">
+      <c r="A128" s="3" t="s">
+        <v>642</v>
+      </c>
+      <c r="B128" s="3" t="s">
+        <v>643</v>
+      </c>
+      <c r="C128" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D128" s="4" t="s">
-        <v>465</v>
-      </c>
-      <c r="E128" s="4" t="s">
-        <v>466</v>
-      </c>
-      <c r="F128" s="4" t="s">
-        <v>465</v>
+      <c r="D128" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E128" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F128" s="3" t="s">
+        <v>57</v>
       </c>
       <c r="G128" s="4"/>
       <c r="H128" s="4"/>
@@ -8288,22 +8308,22 @@
     </row>
     <row r="129" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
-        <v>245</v>
+        <v>463</v>
       </c>
       <c r="B129" s="4" t="s">
-        <v>256</v>
+        <v>464</v>
       </c>
       <c r="C129" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D129" s="4" t="s">
-        <v>248</v>
+        <v>465</v>
       </c>
       <c r="E129" s="4" t="s">
         <v>466</v>
       </c>
       <c r="F129" s="4" t="s">
-        <v>246</v>
+        <v>465</v>
       </c>
       <c r="G129" s="4"/>
       <c r="H129" s="4"/>
@@ -8331,26 +8351,24 @@
     </row>
     <row r="130" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
-        <v>522</v>
+        <v>245</v>
       </c>
       <c r="B130" s="4" t="s">
-        <v>523</v>
+        <v>256</v>
       </c>
       <c r="C130" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D130" s="4" t="s">
-        <v>4</v>
+        <v>248</v>
       </c>
       <c r="E130" s="4" t="s">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="F130" s="4" t="s">
-        <v>524</v>
-      </c>
-      <c r="G130" s="4" t="s">
-        <v>525</v>
-      </c>
+        <v>246</v>
+      </c>
+      <c r="G130" s="4"/>
       <c r="H130" s="4"/>
       <c r="I130" s="4"/>
       <c r="J130" s="4"/>
@@ -8376,25 +8394,25 @@
     </row>
     <row r="131" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
-        <v>235</v>
+        <v>522</v>
       </c>
       <c r="B131" s="4" t="s">
-        <v>503</v>
+        <v>523</v>
       </c>
       <c r="C131" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D131" s="4" t="s">
-        <v>233</v>
+        <v>4</v>
       </c>
       <c r="E131" s="4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F131" s="4" t="s">
-        <v>236</v>
+        <v>524</v>
       </c>
       <c r="G131" s="4" t="s">
-        <v>237</v>
+        <v>525</v>
       </c>
       <c r="H131" s="4"/>
       <c r="I131" s="4"/>
@@ -8421,24 +8439,26 @@
     </row>
     <row r="132" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
-        <v>431</v>
+        <v>235</v>
       </c>
       <c r="B132" s="4" t="s">
-        <v>415</v>
+        <v>503</v>
       </c>
       <c r="C132" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D132" s="4" t="s">
-        <v>15</v>
+        <v>233</v>
       </c>
       <c r="E132" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F132" s="4" t="s">
-        <v>432</v>
-      </c>
-      <c r="G132" s="4"/>
+        <v>236</v>
+      </c>
+      <c r="G132" s="4" t="s">
+        <v>237</v>
+      </c>
       <c r="H132" s="4"/>
       <c r="I132" s="4"/>
       <c r="J132" s="4"/>
@@ -8464,10 +8484,10 @@
     </row>
     <row r="133" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A133" s="4" t="s">
-        <v>286</v>
+        <v>431</v>
       </c>
       <c r="B133" s="4" t="s">
-        <v>285</v>
+        <v>415</v>
       </c>
       <c r="C133" s="4" t="s">
         <v>261</v>
@@ -8479,7 +8499,7 @@
         <v>342</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>287</v>
+        <v>432</v>
       </c>
       <c r="G133" s="4"/>
       <c r="H133" s="4"/>
@@ -8507,22 +8527,22 @@
     </row>
     <row r="134" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A134" s="4" t="s">
-        <v>425</v>
+        <v>286</v>
       </c>
       <c r="B134" s="4" t="s">
-        <v>415</v>
+        <v>285</v>
       </c>
       <c r="C134" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D134" s="4" t="s">
-        <v>416</v>
+        <v>15</v>
       </c>
       <c r="E134" s="4" t="s">
         <v>342</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>426</v>
+        <v>287</v>
       </c>
       <c r="G134" s="4"/>
       <c r="H134" s="4"/>
@@ -8549,27 +8569,25 @@
       <c r="AC134" s="4"/>
     </row>
     <row r="135" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A135" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B135" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C135" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D135" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E135" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F135" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G135" s="3" t="s">
-        <v>114</v>
-      </c>
+      <c r="A135" s="4" t="s">
+        <v>425</v>
+      </c>
+      <c r="B135" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="E135" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F135" s="4" t="s">
+        <v>426</v>
+      </c>
+      <c r="G135" s="4"/>
       <c r="H135" s="4"/>
       <c r="I135" s="4"/>
       <c r="J135" s="4"/>
@@ -8594,25 +8612,27 @@
       <c r="AC135" s="4"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A136" s="4" t="s">
-        <v>595</v>
+      <c r="A136" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B136" s="3" t="s">
-        <v>594</v>
+        <v>445</v>
       </c>
       <c r="C136" s="3" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="D136" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E136" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F136" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="G136" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="E136" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F136" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G136" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
       <c r="J136" s="4"/>
@@ -8638,22 +8658,22 @@
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A137" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B137" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="C137" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B137" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C137" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D137" s="4" t="s">
-        <v>220</v>
+      <c r="D137" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E137" s="4" t="s">
         <v>342</v>
       </c>
       <c r="F137" s="4" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="G137" s="4"/>
       <c r="H137" s="4"/>
@@ -8680,24 +8700,25 @@
       <c r="AC137" s="4"/>
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A138" s="3" t="s">
-        <v>470</v>
+      <c r="A138" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="B138" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C138" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C138" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D138" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E138" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F138" s="3" t="s">
-        <v>471</v>
-      </c>
+      <c r="D138" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G138" s="4"/>
       <c r="H138" s="4"/>
       <c r="I138" s="4"/>
       <c r="J138" s="4"/>
@@ -8722,26 +8743,23 @@
       <c r="AC138" s="4"/>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A139" s="4" t="s">
-        <v>366</v>
+      <c r="A139" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C139" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D139" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E139" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F139" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G139" s="4" t="s">
-        <v>370</v>
+        <v>590</v>
+      </c>
+      <c r="C139" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D139" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E139" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F139" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
@@ -8767,26 +8785,26 @@
       <c r="AC139" s="4"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A140" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B140" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C140" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D140" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E140" s="3" t="s">
+      <c r="A140" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B140" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C140" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D140" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E140" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F140" s="3" t="s">
-        <v>2</v>
+      <c r="F140" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="G140" s="4" t="s">
-        <v>183</v>
+        <v>370</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -8813,25 +8831,25 @@
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A141" s="3" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B141" s="3" t="s">
-        <v>485</v>
+        <v>304</v>
       </c>
       <c r="C141" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D141" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E141" s="4" t="s">
-        <v>466</v>
+      <c r="D141" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E141" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="F141" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -8858,24 +8876,26 @@
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>327</v>
+        <v>485</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D142" s="3" t="s">
-        <v>117</v>
+      <c r="D142" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E142" s="4" t="s">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G142" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G142" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
       <c r="J142" s="4"/>
@@ -8901,22 +8921,22 @@
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B143" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C143" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B143" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C143" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D143" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G143" s="4"/>
       <c r="H143" s="4"/>
@@ -8943,27 +8963,25 @@
       <c r="AC143" s="4"/>
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A144" s="4" t="s">
-        <v>238</v>
+      <c r="A144" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B144" s="4" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="C144" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D144" s="4" t="s">
-        <v>233</v>
+        <v>261</v>
+      </c>
+      <c r="D144" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F144" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G144" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F144" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G144" s="4"/>
       <c r="H144" s="4"/>
       <c r="I144" s="4"/>
       <c r="J144" s="4"/>
@@ -8989,24 +9007,26 @@
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A145" s="4" t="s">
-        <v>510</v>
+        <v>238</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D145" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D145" s="4" t="s">
         <v>233</v>
       </c>
       <c r="E145" s="4" t="s">
         <v>329</v>
       </c>
       <c r="F145" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="G145" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="G145" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -9032,26 +9052,24 @@
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>151</v>
+        <v>510</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>265</v>
+        <v>459</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D146" s="4" t="s">
-        <v>22</v>
+        <v>511</v>
+      </c>
+      <c r="D146" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E146" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G146" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="G146" s="4"/>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -9077,25 +9095,25 @@
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="D147" s="4" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="G147" s="4" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
@@ -9121,23 +9139,26 @@
       <c r="AC147" s="4"/>
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A148" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B148" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C148" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D148" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E148" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F148" s="3" t="s">
-        <v>657</v>
+      <c r="A148" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B148" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C148" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D148" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G148" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -9164,24 +9185,23 @@
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A149" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B149" s="3" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="C149" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D149" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E149" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F149" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G149" s="4"/>
+        <v>657</v>
+      </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
       <c r="J149" s="4"/>
@@ -9206,27 +9226,25 @@
       <c r="AC149" s="4"/>
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A150" s="4" t="s">
-        <v>215</v>
-      </c>
-      <c r="B150" s="4" t="s">
-        <v>271</v>
-      </c>
-      <c r="C150" s="4" t="s">
-        <v>272</v>
-      </c>
-      <c r="D150" s="4" t="s">
-        <v>216</v>
+      <c r="A150" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B150" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C150" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D150" s="3" t="s">
+        <v>108</v>
       </c>
       <c r="E150" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="F150" s="4" t="s">
-        <v>217</v>
-      </c>
-      <c r="G150" s="4" t="s">
-        <v>216</v>
-      </c>
+        <v>342</v>
+      </c>
+      <c r="F150" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G150" s="4"/>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -9252,24 +9270,26 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>559</v>
+        <v>215</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>560</v>
+        <v>271</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>561</v>
+        <v>272</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>329</v>
+        <v>216</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="G151" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="G151" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -9294,23 +9314,23 @@
       <c r="AC151" s="4"/>
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A152" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B152" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="C152" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D152" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F152" s="3" t="s">
-        <v>474</v>
+      <c r="A152" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B152" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C152" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F152" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="G152" s="4"/>
       <c r="H152" s="4"/>
@@ -9337,23 +9357,23 @@
       <c r="AC152" s="4"/>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A153" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B153" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D153" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E153" s="4" t="s">
+      <c r="A153" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B153" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C153" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D153" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E153" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F153" s="4" t="s">
-        <v>400</v>
+      <c r="F153" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -9381,26 +9401,24 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -9426,24 +9444,26 @@
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A155" s="4" t="s">
-        <v>644</v>
+        <v>334</v>
       </c>
       <c r="B155" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G155" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -9468,23 +9488,23 @@
       <c r="AC155" s="4"/>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A156" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B156" s="3" t="s">
-        <v>279</v>
+      <c r="A156" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B156" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="C156" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D156" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E156" s="4" t="s">
-        <v>355</v>
+        <v>56</v>
+      </c>
+      <c r="E156" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="F156" s="3" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -9511,27 +9531,25 @@
       <c r="AC156" s="4"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A157" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B157" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C157" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D157" s="4" t="s">
-        <v>229</v>
+      <c r="A157" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B157" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C157" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D157" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F157" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>231</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F157" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -9556,26 +9574,26 @@
       <c r="AC157" s="4"/>
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A158" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B158" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>42</v>
+      <c r="A158" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B158" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="E158" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F158" s="3" t="s">
-        <v>180</v>
+      <c r="F158" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G158" s="4" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
@@ -9601,26 +9619,26 @@
       <c r="AC158" s="4"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A159" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B159" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C159" s="4" t="s">
+      <c r="A159" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B159" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C159" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D159" s="4" t="s">
-        <v>15</v>
+      <c r="D159" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F159" s="4" t="s">
-        <v>412</v>
+        <v>329</v>
+      </c>
+      <c r="F159" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G159" s="4" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
@@ -9647,24 +9665,26 @@
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="C160" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>454</v>
+        <v>15</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G160" s="4"/>
+        <v>412</v>
+      </c>
+      <c r="G160" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -9689,23 +9709,23 @@
       <c r="AC160" s="4"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C161" s="3" t="s">
+      <c r="A161" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C161" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D161" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E161" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F161" s="3" t="s">
-        <v>134</v>
+      <c r="D161" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E161" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F161" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
@@ -9732,23 +9752,23 @@
       <c r="AC161" s="4"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C162" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D162" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E162" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>234</v>
+      <c r="A162" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C162" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D162" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E162" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
@@ -9776,26 +9796,24 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>481</v>
+        <v>232</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G163" s="4" t="s">
-        <v>484</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G163" s="4"/>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
@@ -9821,24 +9839,26 @@
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A164" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>279</v>
+        <v>481</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C164" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D164" s="4" t="s">
-        <v>154</v>
+        <v>482</v>
       </c>
       <c r="E164" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F164" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G164" s="4"/>
+        <v>483</v>
+      </c>
+      <c r="G164" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -9863,27 +9883,25 @@
       <c r="AC164" s="4"/>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A165" s="3" t="s">
-        <v>214</v>
+      <c r="A165" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="B165" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C165" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C165" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D165" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E165" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="F165" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G165" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D165" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E165" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F165" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G165" s="4"/>
       <c r="H165" s="4"/>
       <c r="I165" s="4"/>
       <c r="J165" s="4"/>
@@ -9908,25 +9926,27 @@
       <c r="AC165" s="4"/>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A166" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="B166" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="C166" s="4" t="s">
+      <c r="A166" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B166" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C166" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D166" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E166" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F166" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G166" s="4"/>
+      <c r="D166" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E166" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F166" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G166" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
@@ -9951,27 +9971,25 @@
       <c r="AC166" s="4"/>
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A167" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C167" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D167" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E167" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F167" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G167" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="A167" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C167" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E167" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F167" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G167" s="4"/>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
@@ -9996,25 +10014,27 @@
       <c r="AC167" s="4"/>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A168" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="B168" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="C168" s="4" t="s">
-        <v>261</v>
+      <c r="A168" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B168" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C168" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F168" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G168" s="4"/>
+        <v>355</v>
+      </c>
+      <c r="F168" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G168" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
@@ -10040,26 +10060,24 @@
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>415</v>
+        <v>634</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="E169" s="4" t="s">
+      <c r="D169" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E169" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="G169" s="4" t="s">
-        <v>604</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="G169" s="4"/>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
@@ -10085,24 +10103,26 @@
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A170" s="4" t="s">
-        <v>268</v>
+        <v>606</v>
       </c>
       <c r="B170" s="4" t="s">
-        <v>270</v>
+        <v>415</v>
       </c>
       <c r="C170" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D170" s="4" t="s">
-        <v>207</v>
+        <v>603</v>
       </c>
       <c r="E170" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F170" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G170" s="4"/>
+        <v>605</v>
+      </c>
+      <c r="G170" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -10127,12 +10147,24 @@
       <c r="AC170" s="4"/>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A171" s="4"/>
-      <c r="B171" s="4"/>
-      <c r="C171" s="4"/>
-      <c r="D171" s="4"/>
-      <c r="E171" s="4"/>
-      <c r="F171" s="4"/>
+      <c r="A171" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B171" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C171" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E171" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F171" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>

--- a/Dim/FictionalCompanyNames_ v0-00-001.xlsx
+++ b/Dim/FictionalCompanyNames_ v0-00-001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Datasets\Dim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C9918DC-95F8-476D-BFAE-A6122FB52274}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51917B7F-49AF-4223-8EA0-28027FFCB502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="671">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="681">
   <si>
     <t>Company Name</t>
   </si>
@@ -2048,6 +2048,36 @@
   </si>
   <si>
     <t>The Never Ending Story</t>
+  </si>
+  <si>
+    <t>The Prancing Pony</t>
+  </si>
+  <si>
+    <t>Restaurant, Nightclub, Hotel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bree </t>
+  </si>
+  <si>
+    <t>The Lord Of The Rings</t>
+  </si>
+  <si>
+    <t>Barliman Butterbur</t>
+  </si>
+  <si>
+    <t>Aragorn</t>
+  </si>
+  <si>
+    <t>The Green Dragon Inn</t>
+  </si>
+  <si>
+    <t>The Shire</t>
+  </si>
+  <si>
+    <t>Rosie Cotton</t>
+  </si>
+  <si>
+    <t>Samwise Gamgee</t>
   </si>
 </sst>
 </file>
@@ -2675,10 +2705,10 @@
   <dimension ref="A1:AC1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A21" sqref="A21"/>
+      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -9270,25 +9300,25 @@
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A151" s="4" t="s">
-        <v>215</v>
+        <v>677</v>
       </c>
       <c r="B151" s="4" t="s">
-        <v>271</v>
+        <v>672</v>
       </c>
       <c r="C151" s="4" t="s">
-        <v>272</v>
+        <v>678</v>
       </c>
       <c r="D151" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E151" s="3" t="s">
-        <v>354</v>
+        <v>674</v>
+      </c>
+      <c r="E151" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="F151" s="4" t="s">
-        <v>217</v>
+        <v>679</v>
       </c>
       <c r="G151" s="4" t="s">
-        <v>216</v>
+        <v>680</v>
       </c>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
@@ -9315,24 +9345,26 @@
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>559</v>
+        <v>215</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>560</v>
+        <v>271</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>561</v>
+        <v>272</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E152" s="4" t="s">
-        <v>329</v>
+        <v>216</v>
+      </c>
+      <c r="E152" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="G152" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="G152" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
       <c r="J152" s="4"/>
@@ -9357,23 +9389,23 @@
       <c r="AC152" s="4"/>
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A153" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B153" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="C153" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D153" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E153" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F153" s="3" t="s">
-        <v>474</v>
+      <c r="A153" s="4" t="s">
+        <v>559</v>
+      </c>
+      <c r="B153" s="4" t="s">
+        <v>560</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>561</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>562</v>
+      </c>
+      <c r="E153" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F153" s="4" t="s">
+        <v>563</v>
       </c>
       <c r="G153" s="4"/>
       <c r="H153" s="4"/>
@@ -9401,24 +9433,26 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>397</v>
+        <v>671</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>311</v>
+        <v>672</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>398</v>
+        <v>673</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>399</v>
+        <v>674</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>342</v>
+        <v>442</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>400</v>
-      </c>
-      <c r="G154" s="4"/>
+        <v>675</v>
+      </c>
+      <c r="G154" s="4" t="s">
+        <v>676</v>
+      </c>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -9443,27 +9477,25 @@
       <c r="AC154" s="4"/>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A155" s="4" t="s">
-        <v>334</v>
-      </c>
-      <c r="B155" s="4" t="s">
-        <v>335</v>
-      </c>
-      <c r="C155" s="4" t="s">
-        <v>319</v>
-      </c>
-      <c r="D155" s="4" t="s">
-        <v>336</v>
-      </c>
-      <c r="E155" s="4" t="s">
-        <v>322</v>
-      </c>
-      <c r="F155" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G155" s="4" t="s">
-        <v>341</v>
-      </c>
+      <c r="A155" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B155" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C155" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D155" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E155" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F155" s="3" t="s">
+        <v>474</v>
+      </c>
+      <c r="G155" s="4"/>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -9489,22 +9521,22 @@
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A156" s="4" t="s">
-        <v>644</v>
+        <v>397</v>
       </c>
       <c r="B156" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C156" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D156" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E156" s="3" t="s">
+        <v>311</v>
+      </c>
+      <c r="C156" s="4" t="s">
+        <v>398</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="E156" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F156" s="3" t="s">
-        <v>57</v>
+      <c r="F156" s="4" t="s">
+        <v>400</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -9531,25 +9563,27 @@
       <c r="AC156" s="4"/>
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A157" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B157" s="3" t="s">
-        <v>279</v>
-      </c>
-      <c r="C157" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D157" s="3" t="s">
-        <v>154</v>
+      <c r="A157" s="4" t="s">
+        <v>334</v>
+      </c>
+      <c r="B157" s="4" t="s">
+        <v>335</v>
+      </c>
+      <c r="C157" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>336</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F157" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="G157" s="4"/>
+        <v>322</v>
+      </c>
+      <c r="F157" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G157" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -9575,26 +9609,24 @@
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>290</v>
+        <v>644</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D158" s="4" t="s">
-        <v>229</v>
-      </c>
-      <c r="E158" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F158" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G158" s="4" t="s">
-        <v>231</v>
-      </c>
+        <v>645</v>
+      </c>
+      <c r="C158" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D158" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="E158" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F158" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="G158" s="4"/>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -9620,26 +9652,24 @@
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A159" s="3" t="s">
-        <v>251</v>
+        <v>130</v>
       </c>
       <c r="B159" s="3" t="s">
-        <v>250</v>
+        <v>279</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>42</v>
+        <v>154</v>
       </c>
       <c r="E159" s="4" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>180</v>
-      </c>
-      <c r="G159" s="4" t="s">
-        <v>181</v>
-      </c>
+        <v>131</v>
+      </c>
+      <c r="G159" s="4"/>
       <c r="H159" s="4"/>
       <c r="I159" s="4"/>
       <c r="J159" s="4"/>
@@ -9665,25 +9695,25 @@
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A160" s="4" t="s">
-        <v>410</v>
+        <v>290</v>
       </c>
       <c r="B160" s="4" t="s">
-        <v>411</v>
+        <v>292</v>
       </c>
       <c r="C160" s="4" t="s">
-        <v>261</v>
+        <v>291</v>
       </c>
       <c r="D160" s="4" t="s">
-        <v>15</v>
+        <v>229</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F160" s="4" t="s">
-        <v>412</v>
+        <v>230</v>
       </c>
       <c r="G160" s="4" t="s">
-        <v>413</v>
+        <v>231</v>
       </c>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
@@ -9709,25 +9739,27 @@
       <c r="AC160" s="4"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A161" s="4" t="s">
-        <v>452</v>
-      </c>
-      <c r="B161" s="4" t="s">
-        <v>453</v>
-      </c>
-      <c r="C161" s="4" t="s">
+      <c r="A161" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B161" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C161" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D161" s="4" t="s">
-        <v>454</v>
+      <c r="D161" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F161" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G161" s="4"/>
+      <c r="F161" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="G161" s="4" t="s">
+        <v>181</v>
+      </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
       <c r="J161" s="4"/>
@@ -9752,25 +9784,27 @@
       <c r="AC161" s="4"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A162" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B162" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C162" s="3" t="s">
+      <c r="A162" s="4" t="s">
+        <v>410</v>
+      </c>
+      <c r="B162" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="C162" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D162" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E162" s="3" t="s">
+      <c r="D162" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="E162" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="F162" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="G162" s="4"/>
+      <c r="F162" s="4" t="s">
+        <v>412</v>
+      </c>
+      <c r="G162" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
       <c r="J162" s="4"/>
@@ -9796,22 +9830,22 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>232</v>
+        <v>452</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>505</v>
+        <v>453</v>
       </c>
       <c r="C163" s="4" t="s">
-        <v>506</v>
+        <v>261</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>233</v>
+        <v>454</v>
       </c>
       <c r="E163" s="4" t="s">
         <v>329</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>234</v>
+        <v>455</v>
       </c>
       <c r="G163" s="4"/>
       <c r="H163" s="4"/>
@@ -9838,27 +9872,25 @@
       <c r="AC163" s="4"/>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A164" s="4" t="s">
-        <v>481</v>
-      </c>
-      <c r="B164" s="4" t="s">
-        <v>480</v>
-      </c>
-      <c r="C164" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D164" s="4" t="s">
-        <v>482</v>
-      </c>
-      <c r="E164" s="4" t="s">
-        <v>355</v>
-      </c>
-      <c r="F164" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G164" s="4" t="s">
-        <v>484</v>
-      </c>
+      <c r="A164" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B164" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C164" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D164" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E164" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F164" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="G164" s="4"/>
       <c r="H164" s="4"/>
       <c r="I164" s="4"/>
       <c r="J164" s="4"/>
@@ -9884,22 +9916,22 @@
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A165" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B165" s="3" t="s">
-        <v>279</v>
+        <v>232</v>
+      </c>
+      <c r="B165" s="4" t="s">
+        <v>505</v>
       </c>
       <c r="C165" s="4" t="s">
-        <v>261</v>
+        <v>506</v>
       </c>
       <c r="D165" s="4" t="s">
-        <v>154</v>
+        <v>233</v>
       </c>
       <c r="E165" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="F165" s="4" t="s">
-        <v>281</v>
+        <v>234</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -9926,26 +9958,26 @@
       <c r="AC165" s="4"/>
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A166" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="B166" s="3" t="s">
+      <c r="A166" s="4" t="s">
+        <v>481</v>
+      </c>
+      <c r="B166" s="4" t="s">
         <v>480</v>
       </c>
-      <c r="C166" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D166" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E166" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="F166" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G166" s="3" t="s">
-        <v>20</v>
+      <c r="C166" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>482</v>
+      </c>
+      <c r="E166" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F166" s="4" t="s">
+        <v>483</v>
+      </c>
+      <c r="G166" s="4" t="s">
+        <v>484</v>
       </c>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
@@ -9972,22 +10004,22 @@
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="B167" s="4" t="s">
-        <v>535</v>
+        <v>280</v>
+      </c>
+      <c r="B167" s="3" t="s">
+        <v>279</v>
       </c>
       <c r="C167" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>454</v>
+        <v>154</v>
       </c>
       <c r="E167" s="4" t="s">
-        <v>329</v>
+        <v>355</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>536</v>
+        <v>281</v>
       </c>
       <c r="G167" s="4"/>
       <c r="H167" s="4"/>
@@ -10015,25 +10047,25 @@
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A168" s="3" t="s">
-        <v>148</v>
+        <v>214</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>637</v>
+        <v>480</v>
       </c>
       <c r="C168" s="3" t="s">
-        <v>447</v>
+        <v>261</v>
       </c>
       <c r="D168" s="3" t="s">
-        <v>135</v>
+        <v>247</v>
       </c>
       <c r="E168" s="3" t="s">
-        <v>355</v>
+        <v>466</v>
       </c>
       <c r="F168" s="3" t="s">
-        <v>149</v>
+        <v>19</v>
       </c>
       <c r="G168" s="3" t="s">
-        <v>136</v>
+        <v>20</v>
       </c>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
@@ -10060,22 +10092,22 @@
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A169" s="4" t="s">
-        <v>633</v>
+        <v>534</v>
       </c>
       <c r="B169" s="4" t="s">
-        <v>634</v>
+        <v>535</v>
       </c>
       <c r="C169" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D169" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="E169" s="3" t="s">
-        <v>342</v>
+      <c r="D169" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E169" s="4" t="s">
+        <v>329</v>
       </c>
       <c r="F169" s="4" t="s">
-        <v>636</v>
+        <v>536</v>
       </c>
       <c r="G169" s="4"/>
       <c r="H169" s="4"/>
@@ -10102,26 +10134,26 @@
       <c r="AC169" s="4"/>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A170" s="4" t="s">
-        <v>606</v>
-      </c>
-      <c r="B170" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="C170" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D170" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="E170" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F170" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="G170" s="4" t="s">
-        <v>604</v>
+      <c r="A170" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B170" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C170" s="3" t="s">
+        <v>447</v>
+      </c>
+      <c r="D170" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="E170" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F170" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G170" s="3" t="s">
+        <v>136</v>
       </c>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
@@ -10148,22 +10180,22 @@
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A171" s="4" t="s">
-        <v>268</v>
+        <v>633</v>
       </c>
       <c r="B171" s="4" t="s">
-        <v>270</v>
+        <v>634</v>
       </c>
       <c r="C171" s="4" t="s">
-        <v>269</v>
-      </c>
-      <c r="D171" s="4" t="s">
-        <v>207</v>
-      </c>
-      <c r="E171" s="4" t="s">
-        <v>355</v>
+        <v>261</v>
+      </c>
+      <c r="D171" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E171" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="F171" s="4" t="s">
-        <v>208</v>
+        <v>636</v>
       </c>
       <c r="G171" s="4"/>
       <c r="H171" s="4"/>
@@ -10190,13 +10222,27 @@
       <c r="AC171" s="4"/>
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A172" s="4"/>
-      <c r="B172" s="4"/>
-      <c r="C172" s="4"/>
-      <c r="D172" s="4"/>
-      <c r="E172" s="4"/>
-      <c r="F172" s="4"/>
-      <c r="G172" s="4"/>
+      <c r="A172" s="4" t="s">
+        <v>606</v>
+      </c>
+      <c r="B172" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="C172" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>603</v>
+      </c>
+      <c r="E172" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F172" s="4" t="s">
+        <v>605</v>
+      </c>
+      <c r="G172" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -10221,12 +10267,24 @@
       <c r="AC172" s="4"/>
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A173" s="4"/>
-      <c r="B173" s="4"/>
-      <c r="C173" s="4"/>
-      <c r="D173" s="4"/>
-      <c r="E173" s="4"/>
-      <c r="F173" s="4"/>
+      <c r="A173" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B173" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C173" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E173" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F173" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="G173" s="4"/>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>

--- a/Dim/FictionalCompanyNames_ v0-00-001.xlsx
+++ b/Dim/FictionalCompanyNames_ v0-00-001.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHub\Datasets\Dim\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51917B7F-49AF-4223-8EA0-28027FFCB502}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9FE74EB5-302B-4D8A-853E-C7BD5ADF0993}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="930" yWindow="0" windowWidth="19560" windowHeight="11520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1120" uniqueCount="681">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1127" uniqueCount="686">
   <si>
     <t>Company Name</t>
   </si>
@@ -2078,6 +2078,21 @@
   </si>
   <si>
     <t>Samwise Gamgee</t>
+  </si>
+  <si>
+    <t>Scoops Ahoy</t>
+  </si>
+  <si>
+    <t>Ice Cream Parlor</t>
+  </si>
+  <si>
+    <t>Stranger Things</t>
+  </si>
+  <si>
+    <t>Robin Buckley</t>
+  </si>
+  <si>
+    <t>Steve Harrington</t>
   </si>
 </sst>
 </file>
@@ -2705,10 +2720,10 @@
   <dimension ref="A1:AC1005"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B41" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="B119" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A173" sqref="A173"/>
+      <selection pane="bottomRight" activeCell="A174" sqref="A174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -8642,26 +8657,26 @@
       <c r="AC135" s="4"/>
     </row>
     <row r="136" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A136" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B136" s="3" t="s">
-        <v>445</v>
-      </c>
-      <c r="C136" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="D136" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="E136" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="F136" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G136" s="3" t="s">
-        <v>114</v>
+      <c r="A136" s="4" t="s">
+        <v>681</v>
+      </c>
+      <c r="B136" s="4" t="s">
+        <v>682</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>683</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>684</v>
+      </c>
+      <c r="G136" s="4" t="s">
+        <v>685</v>
       </c>
       <c r="H136" s="4"/>
       <c r="I136" s="4"/>
@@ -8687,25 +8702,27 @@
       <c r="AC136" s="4"/>
     </row>
     <row r="137" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A137" s="4" t="s">
-        <v>595</v>
+      <c r="A137" s="3" t="s">
+        <v>111</v>
       </c>
       <c r="B137" s="3" t="s">
-        <v>594</v>
+        <v>445</v>
       </c>
       <c r="C137" s="3" t="s">
-        <v>261</v>
+        <v>444</v>
       </c>
       <c r="D137" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="E137" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F137" s="4" t="s">
-        <v>596</v>
-      </c>
-      <c r="G137" s="4"/>
+        <v>112</v>
+      </c>
+      <c r="E137" s="3" t="s">
+        <v>442</v>
+      </c>
+      <c r="F137" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G137" s="3" t="s">
+        <v>114</v>
+      </c>
       <c r="H137" s="4"/>
       <c r="I137" s="4"/>
       <c r="J137" s="4"/>
@@ -8731,22 +8748,22 @@
     </row>
     <row r="138" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A138" s="4" t="s">
-        <v>576</v>
-      </c>
-      <c r="B138" s="4" t="s">
-        <v>577</v>
-      </c>
-      <c r="C138" s="4" t="s">
+        <v>595</v>
+      </c>
+      <c r="B138" s="3" t="s">
+        <v>594</v>
+      </c>
+      <c r="C138" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D138" s="4" t="s">
-        <v>220</v>
+      <c r="D138" s="3" t="s">
+        <v>124</v>
       </c>
       <c r="E138" s="4" t="s">
         <v>342</v>
       </c>
       <c r="F138" s="4" t="s">
-        <v>578</v>
+        <v>596</v>
       </c>
       <c r="G138" s="4"/>
       <c r="H138" s="4"/>
@@ -8773,24 +8790,25 @@
       <c r="AC138" s="4"/>
     </row>
     <row r="139" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A139" s="3" t="s">
-        <v>470</v>
+      <c r="A139" s="4" t="s">
+        <v>576</v>
       </c>
       <c r="B139" s="4" t="s">
-        <v>590</v>
-      </c>
-      <c r="C139" s="3" t="s">
+        <v>577</v>
+      </c>
+      <c r="C139" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D139" s="3" t="s">
-        <v>472</v>
-      </c>
-      <c r="E139" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F139" s="3" t="s">
-        <v>471</v>
-      </c>
+      <c r="D139" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="E139" s="4" t="s">
+        <v>342</v>
+      </c>
+      <c r="F139" s="4" t="s">
+        <v>578</v>
+      </c>
+      <c r="G139" s="4"/>
       <c r="H139" s="4"/>
       <c r="I139" s="4"/>
       <c r="J139" s="4"/>
@@ -8815,26 +8833,23 @@
       <c r="AC139" s="4"/>
     </row>
     <row r="140" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A140" s="4" t="s">
-        <v>366</v>
+      <c r="A140" s="3" t="s">
+        <v>470</v>
       </c>
       <c r="B140" s="4" t="s">
-        <v>371</v>
-      </c>
-      <c r="C140" s="4" t="s">
-        <v>367</v>
-      </c>
-      <c r="D140" s="4" t="s">
-        <v>490</v>
-      </c>
-      <c r="E140" s="4" t="s">
-        <v>354</v>
-      </c>
-      <c r="F140" s="4" t="s">
-        <v>369</v>
-      </c>
-      <c r="G140" s="4" t="s">
-        <v>370</v>
+        <v>590</v>
+      </c>
+      <c r="C140" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D140" s="3" t="s">
+        <v>472</v>
+      </c>
+      <c r="E140" s="3" t="s">
+        <v>355</v>
+      </c>
+      <c r="F140" s="3" t="s">
+        <v>471</v>
       </c>
       <c r="H140" s="4"/>
       <c r="I140" s="4"/>
@@ -8860,26 +8875,26 @@
       <c r="AC140" s="4"/>
     </row>
     <row r="141" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A141" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B141" s="3" t="s">
-        <v>304</v>
-      </c>
-      <c r="C141" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D141" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E141" s="3" t="s">
+      <c r="A141" s="4" t="s">
+        <v>366</v>
+      </c>
+      <c r="B141" s="4" t="s">
+        <v>371</v>
+      </c>
+      <c r="C141" s="4" t="s">
+        <v>367</v>
+      </c>
+      <c r="D141" s="4" t="s">
+        <v>490</v>
+      </c>
+      <c r="E141" s="4" t="s">
         <v>354</v>
       </c>
-      <c r="F141" s="3" t="s">
-        <v>2</v>
+      <c r="F141" s="4" t="s">
+        <v>369</v>
       </c>
       <c r="G141" s="4" t="s">
-        <v>183</v>
+        <v>370</v>
       </c>
       <c r="H141" s="4"/>
       <c r="I141" s="4"/>
@@ -8906,25 +8921,25 @@
     </row>
     <row r="142" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A142" s="3" t="s">
-        <v>17</v>
+        <v>115</v>
       </c>
       <c r="B142" s="3" t="s">
-        <v>485</v>
+        <v>304</v>
       </c>
       <c r="C142" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D142" s="4" t="s">
-        <v>248</v>
-      </c>
-      <c r="E142" s="4" t="s">
-        <v>466</v>
+      <c r="D142" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="F142" s="3" t="s">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="G142" s="4" t="s">
-        <v>159</v>
+        <v>183</v>
       </c>
       <c r="H142" s="4"/>
       <c r="I142" s="4"/>
@@ -8951,24 +8966,26 @@
     </row>
     <row r="143" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A143" s="3" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
       <c r="B143" s="3" t="s">
-        <v>327</v>
+        <v>485</v>
       </c>
       <c r="C143" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D143" s="3" t="s">
-        <v>117</v>
+      <c r="D143" s="4" t="s">
+        <v>248</v>
       </c>
       <c r="E143" s="4" t="s">
-        <v>342</v>
+        <v>466</v>
       </c>
       <c r="F143" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="G143" s="4"/>
+        <v>18</v>
+      </c>
+      <c r="G143" s="4" t="s">
+        <v>159</v>
+      </c>
       <c r="H143" s="4"/>
       <c r="I143" s="4"/>
       <c r="J143" s="4"/>
@@ -8994,22 +9011,22 @@
     </row>
     <row r="144" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A144" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B144" s="4" t="s">
-        <v>265</v>
-      </c>
-      <c r="C144" s="4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B144" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="C144" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D144" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E144" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F144" s="3" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="G144" s="4"/>
       <c r="H144" s="4"/>
@@ -9036,27 +9053,25 @@
       <c r="AC144" s="4"/>
     </row>
     <row r="145" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A145" s="4" t="s">
-        <v>238</v>
+      <c r="A145" s="3" t="s">
+        <v>119</v>
       </c>
       <c r="B145" s="4" t="s">
-        <v>504</v>
+        <v>265</v>
       </c>
       <c r="C145" s="4" t="s">
-        <v>259</v>
-      </c>
-      <c r="D145" s="4" t="s">
-        <v>233</v>
+        <v>261</v>
+      </c>
+      <c r="D145" s="3" t="s">
+        <v>120</v>
       </c>
       <c r="E145" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F145" s="4" t="s">
-        <v>239</v>
-      </c>
-      <c r="G145" s="4" t="s">
-        <v>240</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F145" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="G145" s="4"/>
       <c r="H145" s="4"/>
       <c r="I145" s="4"/>
       <c r="J145" s="4"/>
@@ -9082,24 +9097,26 @@
     </row>
     <row r="146" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A146" s="4" t="s">
-        <v>510</v>
+        <v>238</v>
       </c>
       <c r="B146" s="4" t="s">
-        <v>459</v>
+        <v>504</v>
       </c>
       <c r="C146" s="4" t="s">
-        <v>511</v>
-      </c>
-      <c r="D146" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="D146" s="4" t="s">
         <v>233</v>
       </c>
       <c r="E146" s="4" t="s">
         <v>329</v>
       </c>
       <c r="F146" s="4" t="s">
-        <v>512</v>
-      </c>
-      <c r="G146" s="4"/>
+        <v>239</v>
+      </c>
+      <c r="G146" s="4" t="s">
+        <v>240</v>
+      </c>
       <c r="H146" s="4"/>
       <c r="I146" s="4"/>
       <c r="J146" s="4"/>
@@ -9125,26 +9142,24 @@
     </row>
     <row r="147" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A147" s="4" t="s">
-        <v>151</v>
+        <v>510</v>
       </c>
       <c r="B147" s="4" t="s">
-        <v>265</v>
+        <v>459</v>
       </c>
       <c r="C147" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D147" s="4" t="s">
-        <v>22</v>
+        <v>511</v>
+      </c>
+      <c r="D147" s="3" t="s">
+        <v>233</v>
       </c>
       <c r="E147" s="4" t="s">
-        <v>342</v>
+        <v>329</v>
       </c>
       <c r="F147" s="4" t="s">
-        <v>152</v>
-      </c>
-      <c r="G147" s="4" t="s">
-        <v>153</v>
-      </c>
+        <v>512</v>
+      </c>
+      <c r="G147" s="4"/>
       <c r="H147" s="4"/>
       <c r="I147" s="4"/>
       <c r="J147" s="4"/>
@@ -9170,25 +9185,25 @@
     </row>
     <row r="148" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A148" s="4" t="s">
-        <v>339</v>
+        <v>151</v>
       </c>
       <c r="B148" s="4" t="s">
-        <v>343</v>
+        <v>265</v>
       </c>
       <c r="C148" s="4" t="s">
-        <v>319</v>
+        <v>261</v>
       </c>
       <c r="D148" s="4" t="s">
-        <v>336</v>
+        <v>22</v>
       </c>
       <c r="E148" s="4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F148" s="4" t="s">
-        <v>337</v>
+        <v>152</v>
       </c>
       <c r="G148" s="4" t="s">
-        <v>338</v>
+        <v>153</v>
       </c>
       <c r="H148" s="4"/>
       <c r="I148" s="4"/>
@@ -9214,23 +9229,26 @@
       <c r="AC148" s="4"/>
     </row>
     <row r="149" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A149" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="B149" s="3" t="s">
-        <v>656</v>
-      </c>
-      <c r="C149" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D149" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="E149" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F149" s="3" t="s">
-        <v>657</v>
+      <c r="A149" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="B149" s="4" t="s">
+        <v>343</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>337</v>
+      </c>
+      <c r="G149" s="4" t="s">
+        <v>338</v>
       </c>
       <c r="H149" s="4"/>
       <c r="I149" s="4"/>
@@ -9257,24 +9275,23 @@
     </row>
     <row r="150" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A150" s="3" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B150" s="3" t="s">
-        <v>641</v>
+        <v>656</v>
       </c>
       <c r="C150" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D150" s="3" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="E150" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F150" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="G150" s="4"/>
+        <v>657</v>
+      </c>
       <c r="H150" s="4"/>
       <c r="I150" s="4"/>
       <c r="J150" s="4"/>
@@ -9299,27 +9316,25 @@
       <c r="AC150" s="4"/>
     </row>
     <row r="151" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A151" s="4" t="s">
-        <v>677</v>
-      </c>
-      <c r="B151" s="4" t="s">
-        <v>672</v>
-      </c>
-      <c r="C151" s="4" t="s">
-        <v>678</v>
-      </c>
-      <c r="D151" s="4" t="s">
-        <v>674</v>
-      </c>
-      <c r="E151" s="4" t="s">
-        <v>442</v>
-      </c>
-      <c r="F151" s="4" t="s">
-        <v>679</v>
-      </c>
-      <c r="G151" s="4" t="s">
-        <v>680</v>
-      </c>
+      <c r="A151" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="B151" s="3" t="s">
+        <v>641</v>
+      </c>
+      <c r="C151" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D151" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="E151" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F151" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="G151" s="4"/>
       <c r="H151" s="4"/>
       <c r="I151" s="4"/>
       <c r="J151" s="4"/>
@@ -9345,25 +9360,25 @@
     </row>
     <row r="152" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A152" s="4" t="s">
-        <v>215</v>
+        <v>677</v>
       </c>
       <c r="B152" s="4" t="s">
-        <v>271</v>
+        <v>672</v>
       </c>
       <c r="C152" s="4" t="s">
-        <v>272</v>
+        <v>678</v>
       </c>
       <c r="D152" s="4" t="s">
-        <v>216</v>
-      </c>
-      <c r="E152" s="3" t="s">
-        <v>354</v>
+        <v>674</v>
+      </c>
+      <c r="E152" s="4" t="s">
+        <v>442</v>
       </c>
       <c r="F152" s="4" t="s">
-        <v>217</v>
+        <v>679</v>
       </c>
       <c r="G152" s="4" t="s">
-        <v>216</v>
+        <v>680</v>
       </c>
       <c r="H152" s="4"/>
       <c r="I152" s="4"/>
@@ -9390,24 +9405,26 @@
     </row>
     <row r="153" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A153" s="4" t="s">
-        <v>559</v>
+        <v>215</v>
       </c>
       <c r="B153" s="4" t="s">
-        <v>560</v>
+        <v>271</v>
       </c>
       <c r="C153" s="4" t="s">
-        <v>561</v>
+        <v>272</v>
       </c>
       <c r="D153" s="4" t="s">
-        <v>562</v>
-      </c>
-      <c r="E153" s="4" t="s">
-        <v>329</v>
+        <v>216</v>
+      </c>
+      <c r="E153" s="3" t="s">
+        <v>354</v>
       </c>
       <c r="F153" s="4" t="s">
-        <v>563</v>
-      </c>
-      <c r="G153" s="4"/>
+        <v>217</v>
+      </c>
+      <c r="G153" s="4" t="s">
+        <v>216</v>
+      </c>
       <c r="H153" s="4"/>
       <c r="I153" s="4"/>
       <c r="J153" s="4"/>
@@ -9433,26 +9450,24 @@
     </row>
     <row r="154" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A154" s="4" t="s">
-        <v>671</v>
+        <v>559</v>
       </c>
       <c r="B154" s="4" t="s">
-        <v>672</v>
+        <v>560</v>
       </c>
       <c r="C154" s="4" t="s">
-        <v>673</v>
+        <v>561</v>
       </c>
       <c r="D154" s="4" t="s">
-        <v>674</v>
+        <v>562</v>
       </c>
       <c r="E154" s="4" t="s">
-        <v>442</v>
+        <v>329</v>
       </c>
       <c r="F154" s="4" t="s">
-        <v>675</v>
-      </c>
-      <c r="G154" s="4" t="s">
-        <v>676</v>
-      </c>
+        <v>563</v>
+      </c>
+      <c r="G154" s="4"/>
       <c r="H154" s="4"/>
       <c r="I154" s="4"/>
       <c r="J154" s="4"/>
@@ -9477,25 +9492,27 @@
       <c r="AC154" s="4"/>
     </row>
     <row r="155" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A155" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="B155" s="3" t="s">
-        <v>582</v>
-      </c>
-      <c r="C155" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D155" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="E155" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F155" s="3" t="s">
-        <v>474</v>
-      </c>
-      <c r="G155" s="4"/>
+      <c r="A155" s="4" t="s">
+        <v>671</v>
+      </c>
+      <c r="B155" s="4" t="s">
+        <v>672</v>
+      </c>
+      <c r="C155" s="4" t="s">
+        <v>673</v>
+      </c>
+      <c r="D155" s="4" t="s">
+        <v>674</v>
+      </c>
+      <c r="E155" s="4" t="s">
+        <v>442</v>
+      </c>
+      <c r="F155" s="4" t="s">
+        <v>675</v>
+      </c>
+      <c r="G155" s="4" t="s">
+        <v>676</v>
+      </c>
       <c r="H155" s="4"/>
       <c r="I155" s="4"/>
       <c r="J155" s="4"/>
@@ -9520,23 +9537,23 @@
       <c r="AC155" s="4"/>
     </row>
     <row r="156" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A156" s="4" t="s">
-        <v>397</v>
-      </c>
-      <c r="B156" s="4" t="s">
-        <v>311</v>
-      </c>
-      <c r="C156" s="4" t="s">
-        <v>398</v>
-      </c>
-      <c r="D156" s="4" t="s">
-        <v>399</v>
-      </c>
-      <c r="E156" s="4" t="s">
+      <c r="A156" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B156" s="3" t="s">
+        <v>582</v>
+      </c>
+      <c r="C156" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D156" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E156" s="3" t="s">
         <v>342</v>
       </c>
-      <c r="F156" s="4" t="s">
-        <v>400</v>
+      <c r="F156" s="3" t="s">
+        <v>474</v>
       </c>
       <c r="G156" s="4"/>
       <c r="H156" s="4"/>
@@ -9564,26 +9581,24 @@
     </row>
     <row r="157" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A157" s="4" t="s">
-        <v>334</v>
+        <v>397</v>
       </c>
       <c r="B157" s="4" t="s">
-        <v>335</v>
+        <v>311</v>
       </c>
       <c r="C157" s="4" t="s">
-        <v>319</v>
+        <v>398</v>
       </c>
       <c r="D157" s="4" t="s">
-        <v>336</v>
+        <v>399</v>
       </c>
       <c r="E157" s="4" t="s">
-        <v>322</v>
+        <v>342</v>
       </c>
       <c r="F157" s="4" t="s">
-        <v>340</v>
-      </c>
-      <c r="G157" s="4" t="s">
-        <v>341</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" s="4"/>
       <c r="J157" s="4"/>
@@ -9609,24 +9624,26 @@
     </row>
     <row r="158" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A158" s="4" t="s">
-        <v>644</v>
+        <v>334</v>
       </c>
       <c r="B158" s="4" t="s">
-        <v>645</v>
-      </c>
-      <c r="C158" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D158" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E158" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F158" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="G158" s="4"/>
+        <v>335</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>319</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="E158" s="4" t="s">
+        <v>322</v>
+      </c>
+      <c r="F158" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="G158" s="4" t="s">
+        <v>341</v>
+      </c>
       <c r="H158" s="4"/>
       <c r="I158" s="4"/>
       <c r="J158" s="4"/>
@@ -9651,23 +9668,23 @@
       <c r="AC158" s="4"/>
     </row>
     <row r="159" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A159" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B159" s="3" t="s">
-        <v>279</v>
+      <c r="A159" s="4" t="s">
+        <v>644</v>
+      </c>
+      <c r="B159" s="4" t="s">
+        <v>645</v>
       </c>
       <c r="C159" s="3" t="s">
         <v>261</v>
       </c>
       <c r="D159" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="E159" s="4" t="s">
-        <v>355</v>
+        <v>56</v>
+      </c>
+      <c r="E159" s="3" t="s">
+        <v>342</v>
       </c>
       <c r="F159" s="3" t="s">
-        <v>131</v>
+        <v>57</v>
       </c>
       <c r="G159" s="4"/>
       <c r="H159" s="4"/>
@@ -9694,27 +9711,25 @@
       <c r="AC159" s="4"/>
     </row>
     <row r="160" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A160" s="4" t="s">
-        <v>290</v>
-      </c>
-      <c r="B160" s="4" t="s">
-        <v>292</v>
-      </c>
-      <c r="C160" s="4" t="s">
-        <v>291</v>
-      </c>
-      <c r="D160" s="4" t="s">
-        <v>229</v>
+      <c r="A160" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="B160" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C160" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D160" s="3" t="s">
+        <v>154</v>
       </c>
       <c r="E160" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F160" s="4" t="s">
-        <v>230</v>
-      </c>
-      <c r="G160" s="4" t="s">
-        <v>231</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="F160" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="G160" s="4"/>
       <c r="H160" s="4"/>
       <c r="I160" s="4"/>
       <c r="J160" s="4"/>
@@ -9739,26 +9754,26 @@
       <c r="AC160" s="4"/>
     </row>
     <row r="161" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A161" s="3" t="s">
-        <v>251</v>
-      </c>
-      <c r="B161" s="3" t="s">
-        <v>250</v>
-      </c>
-      <c r="C161" s="3" t="s">
-        <v>261</v>
-      </c>
-      <c r="D161" s="3" t="s">
-        <v>42</v>
+      <c r="A161" s="4" t="s">
+        <v>290</v>
+      </c>
+      <c r="B161" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="C161" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="D161" s="4" t="s">
+        <v>229</v>
       </c>
       <c r="E161" s="4" t="s">
         <v>329</v>
       </c>
-      <c r="F161" s="3" t="s">
-        <v>180</v>
+      <c r="F161" s="4" t="s">
+        <v>230</v>
       </c>
       <c r="G161" s="4" t="s">
-        <v>181</v>
+        <v>231</v>
       </c>
       <c r="H161" s="4"/>
       <c r="I161" s="4"/>
@@ -9784,26 +9799,26 @@
       <c r="AC161" s="4"/>
     </row>
     <row r="162" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A162" s="4" t="s">
-        <v>410</v>
-      </c>
-      <c r="B162" s="4" t="s">
-        <v>411</v>
-      </c>
-      <c r="C162" s="4" t="s">
+      <c r="A162" s="3" t="s">
+        <v>251</v>
+      </c>
+      <c r="B162" s="3" t="s">
+        <v>250</v>
+      </c>
+      <c r="C162" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D162" s="4" t="s">
-        <v>15</v>
+      <c r="D162" s="3" t="s">
+        <v>42</v>
       </c>
       <c r="E162" s="4" t="s">
-        <v>342</v>
-      </c>
-      <c r="F162" s="4" t="s">
-        <v>412</v>
+        <v>329</v>
+      </c>
+      <c r="F162" s="3" t="s">
+        <v>180</v>
       </c>
       <c r="G162" s="4" t="s">
-        <v>413</v>
+        <v>181</v>
       </c>
       <c r="H162" s="4"/>
       <c r="I162" s="4"/>
@@ -9830,24 +9845,26 @@
     </row>
     <row r="163" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A163" s="4" t="s">
-        <v>452</v>
+        <v>410</v>
       </c>
       <c r="B163" s="4" t="s">
-        <v>453</v>
+        <v>411</v>
       </c>
       <c r="C163" s="4" t="s">
         <v>261</v>
       </c>
       <c r="D163" s="4" t="s">
-        <v>454</v>
+        <v>15</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>329</v>
+        <v>342</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>455</v>
-      </c>
-      <c r="G163" s="4"/>
+        <v>412</v>
+      </c>
+      <c r="G163" s="4" t="s">
+        <v>413</v>
+      </c>
       <c r="H163" s="4"/>
       <c r="I163" s="4"/>
       <c r="J163" s="4"/>
@@ -9872,23 +9889,23 @@
       <c r="AC163" s="4"/>
     </row>
     <row r="164" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A164" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="B164" s="3" t="s">
-        <v>638</v>
-      </c>
-      <c r="C164" s="3" t="s">
+      <c r="A164" s="4" t="s">
+        <v>452</v>
+      </c>
+      <c r="B164" s="4" t="s">
+        <v>453</v>
+      </c>
+      <c r="C164" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D164" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="E164" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F164" s="3" t="s">
-        <v>134</v>
+      <c r="D164" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E164" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F164" s="4" t="s">
+        <v>455</v>
       </c>
       <c r="G164" s="4"/>
       <c r="H164" s="4"/>
@@ -9915,23 +9932,23 @@
       <c r="AC164" s="4"/>
     </row>
     <row r="165" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A165" s="4" t="s">
-        <v>232</v>
-      </c>
-      <c r="B165" s="4" t="s">
-        <v>505</v>
-      </c>
-      <c r="C165" s="4" t="s">
-        <v>506</v>
-      </c>
-      <c r="D165" s="4" t="s">
-        <v>233</v>
-      </c>
-      <c r="E165" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F165" s="4" t="s">
-        <v>234</v>
+      <c r="A165" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B165" s="3" t="s">
+        <v>638</v>
+      </c>
+      <c r="C165" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="D165" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165" s="3" t="s">
+        <v>342</v>
+      </c>
+      <c r="F165" s="3" t="s">
+        <v>134</v>
       </c>
       <c r="G165" s="4"/>
       <c r="H165" s="4"/>
@@ -9959,26 +9976,24 @@
     </row>
     <row r="166" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A166" s="4" t="s">
-        <v>481</v>
+        <v>232</v>
       </c>
       <c r="B166" s="4" t="s">
-        <v>480</v>
+        <v>505</v>
       </c>
       <c r="C166" s="4" t="s">
-        <v>269</v>
+        <v>506</v>
       </c>
       <c r="D166" s="4" t="s">
-        <v>482</v>
+        <v>233</v>
       </c>
       <c r="E166" s="4" t="s">
-        <v>355</v>
+        <v>329</v>
       </c>
       <c r="F166" s="4" t="s">
-        <v>483</v>
-      </c>
-      <c r="G166" s="4" t="s">
-        <v>484</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="G166" s="4"/>
       <c r="H166" s="4"/>
       <c r="I166" s="4"/>
       <c r="J166" s="4"/>
@@ -10004,24 +10019,26 @@
     </row>
     <row r="167" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A167" s="4" t="s">
-        <v>280</v>
-      </c>
-      <c r="B167" s="3" t="s">
-        <v>279</v>
+        <v>481</v>
+      </c>
+      <c r="B167" s="4" t="s">
+        <v>480</v>
       </c>
       <c r="C167" s="4" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="D167" s="4" t="s">
-        <v>154</v>
+        <v>482</v>
       </c>
       <c r="E167" s="4" t="s">
         <v>355</v>
       </c>
       <c r="F167" s="4" t="s">
-        <v>281</v>
-      </c>
-      <c r="G167" s="4"/>
+        <v>483</v>
+      </c>
+      <c r="G167" s="4" t="s">
+        <v>484</v>
+      </c>
       <c r="H167" s="4"/>
       <c r="I167" s="4"/>
       <c r="J167" s="4"/>
@@ -10046,27 +10063,25 @@
       <c r="AC167" s="4"/>
     </row>
     <row r="168" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A168" s="3" t="s">
-        <v>214</v>
+      <c r="A168" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="B168" s="3" t="s">
-        <v>480</v>
-      </c>
-      <c r="C168" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="C168" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D168" s="3" t="s">
-        <v>247</v>
-      </c>
-      <c r="E168" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="F168" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="G168" s="3" t="s">
-        <v>20</v>
-      </c>
+      <c r="D168" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="E168" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F168" s="4" t="s">
+        <v>281</v>
+      </c>
+      <c r="G168" s="4"/>
       <c r="H168" s="4"/>
       <c r="I168" s="4"/>
       <c r="J168" s="4"/>
@@ -10091,25 +10106,27 @@
       <c r="AC168" s="4"/>
     </row>
     <row r="169" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A169" s="4" t="s">
-        <v>534</v>
-      </c>
-      <c r="B169" s="4" t="s">
-        <v>535</v>
-      </c>
-      <c r="C169" s="4" t="s">
+      <c r="A169" s="3" t="s">
+        <v>214</v>
+      </c>
+      <c r="B169" s="3" t="s">
+        <v>480</v>
+      </c>
+      <c r="C169" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="D169" s="4" t="s">
-        <v>454</v>
-      </c>
-      <c r="E169" s="4" t="s">
-        <v>329</v>
-      </c>
-      <c r="F169" s="4" t="s">
-        <v>536</v>
-      </c>
-      <c r="G169" s="4"/>
+      <c r="D169" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="E169" s="3" t="s">
+        <v>466</v>
+      </c>
+      <c r="F169" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="G169" s="3" t="s">
+        <v>20</v>
+      </c>
       <c r="H169" s="4"/>
       <c r="I169" s="4"/>
       <c r="J169" s="4"/>
@@ -10134,27 +10151,25 @@
       <c r="AC169" s="4"/>
     </row>
     <row r="170" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A170" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B170" s="3" t="s">
-        <v>637</v>
-      </c>
-      <c r="C170" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="D170" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="E170" s="3" t="s">
-        <v>355</v>
-      </c>
-      <c r="F170" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="G170" s="3" t="s">
-        <v>136</v>
-      </c>
+      <c r="A170" s="4" t="s">
+        <v>534</v>
+      </c>
+      <c r="B170" s="4" t="s">
+        <v>535</v>
+      </c>
+      <c r="C170" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>454</v>
+      </c>
+      <c r="E170" s="4" t="s">
+        <v>329</v>
+      </c>
+      <c r="F170" s="4" t="s">
+        <v>536</v>
+      </c>
+      <c r="G170" s="4"/>
       <c r="H170" s="4"/>
       <c r="I170" s="4"/>
       <c r="J170" s="4"/>
@@ -10179,25 +10194,27 @@
       <c r="AC170" s="4"/>
     </row>
     <row r="171" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A171" s="4" t="s">
-        <v>633</v>
-      </c>
-      <c r="B171" s="4" t="s">
-        <v>634</v>
-      </c>
-      <c r="C171" s="4" t="s">
-        <v>261</v>
+      <c r="A171" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B171" s="3" t="s">
+        <v>637</v>
+      </c>
+      <c r="C171" s="3" t="s">
+        <v>447</v>
       </c>
       <c r="D171" s="3" t="s">
-        <v>162</v>
+        <v>135</v>
       </c>
       <c r="E171" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="F171" s="4" t="s">
-        <v>636</v>
-      </c>
-      <c r="G171" s="4"/>
+        <v>355</v>
+      </c>
+      <c r="F171" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="G171" s="3" t="s">
+        <v>136</v>
+      </c>
       <c r="H171" s="4"/>
       <c r="I171" s="4"/>
       <c r="J171" s="4"/>
@@ -10223,26 +10240,24 @@
     </row>
     <row r="172" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A172" s="4" t="s">
-        <v>606</v>
+        <v>633</v>
       </c>
       <c r="B172" s="4" t="s">
-        <v>415</v>
+        <v>634</v>
       </c>
       <c r="C172" s="4" t="s">
         <v>261</v>
       </c>
-      <c r="D172" s="4" t="s">
-        <v>603</v>
-      </c>
-      <c r="E172" s="4" t="s">
+      <c r="D172" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="E172" s="3" t="s">
         <v>342</v>
       </c>
       <c r="F172" s="4" t="s">
-        <v>605</v>
-      </c>
-      <c r="G172" s="4" t="s">
-        <v>604</v>
-      </c>
+        <v>636</v>
+      </c>
+      <c r="G172" s="4"/>
       <c r="H172" s="4"/>
       <c r="I172" s="4"/>
       <c r="J172" s="4"/>
@@ -10268,24 +10283,26 @@
     </row>
     <row r="173" spans="1:29" x14ac:dyDescent="0.2">
       <c r="A173" s="4" t="s">
-        <v>268</v>
+        <v>606</v>
       </c>
       <c r="B173" s="4" t="s">
-        <v>270</v>
+        <v>415</v>
       </c>
       <c r="C173" s="4" t="s">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D173" s="4" t="s">
-        <v>207</v>
+        <v>603</v>
       </c>
       <c r="E173" s="4" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
       <c r="F173" s="4" t="s">
-        <v>208</v>
-      </c>
-      <c r="G173" s="4"/>
+        <v>605</v>
+      </c>
+      <c r="G173" s="4" t="s">
+        <v>604</v>
+      </c>
       <c r="H173" s="4"/>
       <c r="I173" s="4"/>
       <c r="J173" s="4"/>
@@ -10310,12 +10327,24 @@
       <c r="AC173" s="4"/>
     </row>
     <row r="174" spans="1:29" x14ac:dyDescent="0.2">
-      <c r="A174" s="4"/>
-      <c r="B174" s="4"/>
-      <c r="C174" s="4"/>
-      <c r="D174" s="4"/>
-      <c r="E174" s="4"/>
-      <c r="F174" s="4"/>
+      <c r="A174" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="B174" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="C174" s="4" t="s">
+        <v>269</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="E174" s="4" t="s">
+        <v>355</v>
+      </c>
+      <c r="F174" s="4" t="s">
+        <v>208</v>
+      </c>
       <c r="G174" s="4"/>
       <c r="H174" s="4"/>
       <c r="I174" s="4"/>
